--- a/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9781169674269183</v>
+        <v>0.9761092424958007</v>
       </c>
       <c r="D2">
-        <v>1.000136513176488</v>
+        <v>0.9978571589815696</v>
       </c>
       <c r="E2">
-        <v>0.9867895757600559</v>
+        <v>0.9851032904095772</v>
       </c>
       <c r="F2">
-        <v>0.9810902636979129</v>
+        <v>0.9516498567912032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036586719451504</v>
+        <v>1.031864757317493</v>
       </c>
       <c r="J2">
-        <v>1.000972494535997</v>
+        <v>0.9990287833576265</v>
       </c>
       <c r="K2">
-        <v>1.011593946481189</v>
+        <v>1.009346427930359</v>
       </c>
       <c r="L2">
-        <v>0.9984360732950428</v>
+        <v>0.996774136746166</v>
       </c>
       <c r="M2">
-        <v>0.9928194824976689</v>
+        <v>0.9638265745183683</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9868011580601904</v>
+        <v>0.9849839826748344</v>
       </c>
       <c r="D3">
-        <v>1.006698758394068</v>
+        <v>1.004588928439301</v>
       </c>
       <c r="E3">
-        <v>0.9940702949481948</v>
+        <v>0.9925389991379781</v>
       </c>
       <c r="F3">
-        <v>0.9902466955630682</v>
+        <v>0.9635575574914279</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039412083145242</v>
+        <v>1.034556416794325</v>
       </c>
       <c r="J3">
-        <v>1.007658220237985</v>
+        <v>1.005892541596339</v>
       </c>
       <c r="K3">
-        <v>1.01724663890684</v>
+        <v>1.015163427871043</v>
       </c>
       <c r="L3">
-        <v>1.004779613953555</v>
+        <v>1.003268243472127</v>
       </c>
       <c r="M3">
-        <v>1.001005911842275</v>
+        <v>0.9746789855722535</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.992219546615833</v>
+        <v>0.9905052980804547</v>
       </c>
       <c r="D4">
-        <v>1.010794723418766</v>
+        <v>1.008779457783588</v>
       </c>
       <c r="E4">
-        <v>0.9986194013897519</v>
+        <v>0.9971715726959729</v>
       </c>
       <c r="F4">
-        <v>0.9959659300245732</v>
+        <v>0.970950078774232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041157307385894</v>
+        <v>1.036216275100004</v>
       </c>
       <c r="J4">
-        <v>1.011824393118663</v>
+        <v>1.010155037644832</v>
       </c>
       <c r="K4">
-        <v>1.02076458831703</v>
+        <v>1.018773064840566</v>
       </c>
       <c r="L4">
-        <v>1.008734517629595</v>
+        <v>1.007304254640283</v>
       </c>
       <c r="M4">
-        <v>1.006113287798975</v>
+        <v>0.9814122337364772</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9944525551448077</v>
+        <v>0.9927773454349238</v>
       </c>
       <c r="D5">
-        <v>1.012482948541652</v>
+        <v>1.010504302014922</v>
       </c>
       <c r="E5">
-        <v>1.000495569263296</v>
+        <v>0.9990793350551769</v>
       </c>
       <c r="F5">
-        <v>0.9983244072336174</v>
+        <v>0.9739891234932532</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041872225032442</v>
+        <v>1.036895705717119</v>
       </c>
       <c r="J5">
-        <v>1.013539987813076</v>
+        <v>1.011907186685935</v>
       </c>
       <c r="K5">
-        <v>1.022212132220012</v>
+        <v>1.020256118250215</v>
       </c>
       <c r="L5">
-        <v>1.010363566730038</v>
+        <v>1.008964004895245</v>
       </c>
       <c r="M5">
-        <v>1.008217988268759</v>
+        <v>0.9841791818140502</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9948249422220801</v>
+        <v>0.9931560557413567</v>
       </c>
       <c r="D6">
-        <v>1.012764492889784</v>
+        <v>1.010791823511692</v>
       </c>
       <c r="E6">
-        <v>1.000808527016544</v>
+        <v>0.9993974063887995</v>
       </c>
       <c r="F6">
-        <v>0.9987178053768064</v>
+        <v>0.9744955216867928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041991191512621</v>
+        <v>1.037008740375751</v>
       </c>
       <c r="J6">
-        <v>1.013826006501268</v>
+        <v>1.012199126897742</v>
       </c>
       <c r="K6">
-        <v>1.022453395420086</v>
+        <v>1.020503177646828</v>
       </c>
       <c r="L6">
-        <v>1.01063518300457</v>
+        <v>1.009240589996</v>
       </c>
       <c r="M6">
-        <v>1.008568969372094</v>
+        <v>0.9846401751717955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922495565514784</v>
+        <v>0.9905358455172222</v>
       </c>
       <c r="D7">
-        <v>1.010817411251121</v>
+        <v>1.008802646666184</v>
       </c>
       <c r="E7">
-        <v>0.9986446102530651</v>
+        <v>0.9971972168286389</v>
       </c>
       <c r="F7">
-        <v>0.9959976202810047</v>
+        <v>0.9709909494250369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041166932563861</v>
+        <v>1.036225424379934</v>
       </c>
       <c r="J7">
-        <v>1.011847454880615</v>
+        <v>1.010178602640683</v>
       </c>
       <c r="K7">
-        <v>1.020784051307179</v>
+        <v>1.018793013685265</v>
       </c>
       <c r="L7">
-        <v>1.008756414233013</v>
+        <v>1.007326574213894</v>
       </c>
       <c r="M7">
-        <v>1.006141573941739</v>
+        <v>0.9814494494384437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9810954603916145</v>
+        <v>0.9791567794435873</v>
       </c>
       <c r="D8">
-        <v>1.002386795142644</v>
+        <v>1.000168187655378</v>
       </c>
       <c r="E8">
-        <v>0.9892852679658558</v>
+        <v>0.9876551983542962</v>
       </c>
       <c r="F8">
-        <v>0.9842294106504217</v>
+        <v>0.9557427379159443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037559437946348</v>
+        <v>1.0327921376497</v>
       </c>
       <c r="J8">
-        <v>1.00326662596757</v>
+        <v>1.001387373859223</v>
       </c>
       <c r="K8">
-        <v>1.013534532547056</v>
+        <v>1.011345881214002</v>
       </c>
       <c r="L8">
-        <v>1.000612360212232</v>
+        <v>0.9990050257471539</v>
       </c>
       <c r="M8">
-        <v>0.9956273288312214</v>
+        <v>0.9675575591232631</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9597374751263629</v>
+        <v>0.9572091050935163</v>
       </c>
       <c r="D9">
-        <v>0.9862649674066295</v>
+        <v>0.9835433474360161</v>
       </c>
       <c r="E9">
-        <v>0.9714236210883418</v>
+        <v>0.9693121736789854</v>
       </c>
       <c r="F9">
-        <v>0.9617466531189807</v>
+        <v>0.9261580286326661</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03051121451551</v>
+        <v>1.026051906411096</v>
       </c>
       <c r="J9">
-        <v>0.9867967544933208</v>
+        <v>0.9843689939185196</v>
       </c>
       <c r="K9">
-        <v>0.9995848873106964</v>
+        <v>0.9969091871544082</v>
       </c>
       <c r="L9">
-        <v>0.984997994209319</v>
+        <v>0.982923567930382</v>
       </c>
       <c r="M9">
-        <v>0.975492431662232</v>
+        <v>0.9405746680215664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440835081227469</v>
+        <v>0.9409613676757377</v>
       </c>
       <c r="D10">
-        <v>0.9744773420389046</v>
+        <v>0.971270895957042</v>
       </c>
       <c r="E10">
-        <v>0.9583849460493625</v>
+        <v>0.9557873181526305</v>
       </c>
       <c r="F10">
-        <v>0.9453035211097973</v>
+        <v>0.9040570873933294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025256153575402</v>
+        <v>1.020986937666408</v>
       </c>
       <c r="J10">
-        <v>0.9747057958068146</v>
+        <v>0.9717303340589092</v>
       </c>
       <c r="K10">
-        <v>0.9893232307833476</v>
+        <v>0.9861789879787771</v>
       </c>
       <c r="L10">
-        <v>0.9735485460221356</v>
+        <v>0.9710035246403604</v>
       </c>
       <c r="M10">
-        <v>0.9607359281028814</v>
+        <v>0.9204053823676294</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9368941537370893</v>
+        <v>0.9334434250402106</v>
       </c>
       <c r="D11">
-        <v>0.9690742753211027</v>
+        <v>0.9656047079853922</v>
       </c>
       <c r="E11">
-        <v>0.9524124688038885</v>
+        <v>0.9495455789237049</v>
       </c>
       <c r="F11">
-        <v>0.937760111033735</v>
+        <v>0.8937588136658104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02282336125335</v>
+        <v>1.018627039992202</v>
       </c>
       <c r="J11">
-        <v>0.9691501064461673</v>
+        <v>0.9658733892805056</v>
       </c>
       <c r="K11">
-        <v>0.9846039608174201</v>
+        <v>0.9812057868840334</v>
       </c>
       <c r="L11">
-        <v>0.9682913025938884</v>
+        <v>0.9654861283044928</v>
       </c>
       <c r="M11">
-        <v>0.9539596480511684</v>
+        <v>0.9110069747962318</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9341540832357249</v>
+        <v>0.9305676242793882</v>
       </c>
       <c r="D12">
-        <v>0.9670169871264895</v>
+        <v>0.9634395230614181</v>
       </c>
       <c r="E12">
-        <v>0.950138880088845</v>
+        <v>0.9471607519940723</v>
       </c>
       <c r="F12">
-        <v>0.9348863554117103</v>
+        <v>0.8898058831809296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021893442205715</v>
+        <v>1.017722031819513</v>
       </c>
       <c r="J12">
-        <v>0.9670324657409759</v>
+        <v>0.9636316648162159</v>
       </c>
       <c r="K12">
-        <v>0.9828045971474634</v>
+        <v>0.9793023625954264</v>
       </c>
       <c r="L12">
-        <v>0.9662880209771051</v>
+        <v>0.9633754643136756</v>
       </c>
       <c r="M12">
-        <v>0.9513772122437669</v>
+        <v>0.9073997194086741</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9347451305707895</v>
+        <v>0.9311884634466535</v>
       </c>
       <c r="D13">
-        <v>0.9674606589167113</v>
+        <v>0.9639068418496032</v>
       </c>
       <c r="E13">
-        <v>0.9506291776092605</v>
+        <v>0.9476754657765273</v>
       </c>
       <c r="F13">
-        <v>0.9355061828091314</v>
+        <v>0.8906599213882326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022094149436026</v>
+        <v>1.01791750881553</v>
       </c>
       <c r="J13">
-        <v>0.9674892575523566</v>
+        <v>0.9641156748229526</v>
       </c>
       <c r="K13">
-        <v>0.9831927568831147</v>
+        <v>0.9797133253222454</v>
       </c>
       <c r="L13">
-        <v>0.9667201166318734</v>
+        <v>0.9638311253904069</v>
       </c>
       <c r="M13">
-        <v>0.9519342467992531</v>
+        <v>0.9081790561881146</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9366691296551022</v>
+        <v>0.9332074810833969</v>
       </c>
       <c r="D14">
-        <v>0.9689052812942198</v>
+        <v>0.9654270176647254</v>
       </c>
       <c r="E14">
-        <v>0.9522256972445571</v>
+        <v>0.9493498580918135</v>
       </c>
       <c r="F14">
-        <v>0.9375240828981032</v>
+        <v>0.8934347898546844</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022747046747254</v>
+        <v>1.018552834180566</v>
       </c>
       <c r="J14">
-        <v>0.9689762013863017</v>
+        <v>0.9656894938146815</v>
       </c>
       <c r="K14">
-        <v>0.9844562036928513</v>
+        <v>0.9810496412242505</v>
       </c>
       <c r="L14">
-        <v>0.9681267764582399</v>
+        <v>0.9653129611472496</v>
       </c>
       <c r="M14">
-        <v>0.9537475650218447</v>
+        <v>0.9107112787784217</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9378450831738466</v>
+        <v>0.934440061314664</v>
       </c>
       <c r="D15">
-        <v>0.9697885098229092</v>
+        <v>0.9663553733011323</v>
       </c>
       <c r="E15">
-        <v>0.9532018581491061</v>
+        <v>0.950372426419465</v>
       </c>
       <c r="F15">
-        <v>0.9387575933624885</v>
+        <v>0.8951269348282037</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02314575009666</v>
+        <v>1.018940396595932</v>
       </c>
       <c r="J15">
-        <v>0.9698850048421749</v>
+        <v>0.9666501185429894</v>
       </c>
       <c r="K15">
-        <v>0.9852283404353904</v>
+        <v>0.9818653107906451</v>
       </c>
       <c r="L15">
-        <v>0.9689865916621223</v>
+        <v>0.9662175890693436</v>
       </c>
       <c r="M15">
-        <v>0.9548558984031272</v>
+        <v>0.9122555006702259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9445513416523658</v>
+        <v>0.941449273213656</v>
       </c>
       <c r="D16">
-        <v>0.9748291850599258</v>
+        <v>0.9716389112836749</v>
       </c>
       <c r="E16">
-        <v>0.9587739438400678</v>
+        <v>0.9561927611831345</v>
       </c>
       <c r="F16">
-        <v>0.9457945662894575</v>
+        <v>0.9047237425305495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02541408097395</v>
+        <v>1.021139770989411</v>
       </c>
       <c r="J16">
-        <v>0.9750672819844441</v>
+        <v>0.9721102634630192</v>
       </c>
       <c r="K16">
-        <v>0.9896302162849622</v>
+        <v>0.9865015887799724</v>
       </c>
       <c r="L16">
-        <v>0.9738906930588367</v>
+        <v>0.9713615712144279</v>
       </c>
       <c r="M16">
-        <v>0.9611769053233802</v>
+        <v>0.9210138037173484</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9486428209259148</v>
+        <v>0.9457098602178472</v>
       </c>
       <c r="D17">
-        <v>0.9779074854482354</v>
+        <v>0.9748539887144874</v>
       </c>
       <c r="E17">
-        <v>0.9621777554812366</v>
+        <v>0.9597351045964754</v>
       </c>
       <c r="F17">
-        <v>0.9500899832205734</v>
+        <v>0.910536964990134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026793107041142</v>
+        <v>1.022472573002994</v>
       </c>
       <c r="J17">
-        <v>0.9782284085420108</v>
+        <v>0.9754269685658631</v>
       </c>
       <c r="K17">
-        <v>0.9923142916419878</v>
+        <v>0.9893177677550351</v>
       </c>
       <c r="L17">
-        <v>0.9768831190328727</v>
+        <v>0.9744879823522674</v>
       </c>
       <c r="M17">
-        <v>0.9650336177994349</v>
+        <v>0.9263192314383283</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9509902477145694</v>
+        <v>0.9481492686195881</v>
       </c>
       <c r="D18">
-        <v>0.9796745755640337</v>
+        <v>0.9766959042845517</v>
       </c>
       <c r="E18">
-        <v>0.9641320868442259</v>
+        <v>0.9617647676435399</v>
       </c>
       <c r="F18">
-        <v>0.9525551970479949</v>
+        <v>0.9138588711380325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027582491541613</v>
+        <v>1.023234149956827</v>
       </c>
       <c r="J18">
-        <v>0.9800417926321574</v>
+        <v>0.9773251233020686</v>
       </c>
       <c r="K18">
-        <v>0.99385362461211</v>
+        <v>0.9909293982921968</v>
       </c>
       <c r="L18">
-        <v>0.9786000665989212</v>
+        <v>0.9762778276164137</v>
       </c>
       <c r="M18">
-        <v>0.9672464296427505</v>
+        <v>0.9293509211432146</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9517842499502238</v>
+        <v>0.9489735795181148</v>
       </c>
       <c r="D19">
-        <v>0.9802724351290992</v>
+        <v>0.9773184920803635</v>
       </c>
       <c r="E19">
-        <v>0.9647933632057516</v>
+        <v>0.9624508627863563</v>
       </c>
       <c r="F19">
-        <v>0.9533891724954215</v>
+        <v>0.9149803634974207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027849183383963</v>
+        <v>1.023491235199245</v>
       </c>
       <c r="J19">
-        <v>0.9806551077701335</v>
+        <v>0.9779663942835375</v>
       </c>
       <c r="K19">
-        <v>0.9943741829173822</v>
+        <v>0.9914738539514666</v>
       </c>
       <c r="L19">
-        <v>0.9791808215414789</v>
+        <v>0.976882605463715</v>
       </c>
       <c r="M19">
-        <v>0.9679949108781051</v>
+        <v>0.9303744202312054</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9482079367941022</v>
+        <v>0.9452575391015159</v>
       </c>
       <c r="D20">
-        <v>0.9775801898644296</v>
+        <v>0.9745125441702162</v>
       </c>
       <c r="E20">
-        <v>0.9618158112481613</v>
+        <v>0.9593588780341255</v>
       </c>
       <c r="F20">
-        <v>0.9496333412575481</v>
+        <v>0.9099205006790403</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02664671742047</v>
+        <v>1.022331234832142</v>
       </c>
       <c r="J20">
-        <v>0.9778924382033699</v>
+        <v>0.9750749400913553</v>
       </c>
       <c r="K20">
-        <v>0.9920290632483812</v>
+        <v>0.9890188707109904</v>
       </c>
       <c r="L20">
-        <v>0.9765650429189083</v>
+        <v>0.9741560884528149</v>
       </c>
       <c r="M20">
-        <v>0.9646236784149829</v>
+        <v>0.9257566188827868</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9361045523237977</v>
+        <v>0.9326153293876209</v>
       </c>
       <c r="D21">
-        <v>0.9684813144872514</v>
+        <v>0.9649811038860768</v>
       </c>
       <c r="E21">
-        <v>0.9517571385734418</v>
+        <v>0.9488587009836774</v>
       </c>
       <c r="F21">
-        <v>0.936931916927078</v>
+        <v>0.8926213545051221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022555533567574</v>
+        <v>1.018366562758618</v>
       </c>
       <c r="J21">
-        <v>0.9685398772545875</v>
+        <v>0.9652279482690045</v>
       </c>
       <c r="K21">
-        <v>0.9840854758505402</v>
+        <v>0.9806577442233901</v>
       </c>
       <c r="L21">
-        <v>0.9677139936874902</v>
+        <v>0.9648783598601693</v>
       </c>
       <c r="M21">
-        <v>0.953215459775953</v>
+        <v>0.9099689634745013</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9280868092597759</v>
+        <v>0.9241773848138057</v>
       </c>
       <c r="D22">
-        <v>0.9624657217116868</v>
+        <v>0.9586330686055368</v>
       </c>
       <c r="E22">
-        <v>0.9451099262938675</v>
+        <v>0.9418671116306924</v>
       </c>
       <c r="F22">
-        <v>0.9285253818636093</v>
+        <v>0.8809932194343744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019829562556916</v>
+        <v>1.015706994857634</v>
       </c>
       <c r="J22">
-        <v>0.9623432920677768</v>
+        <v>0.9586480317979488</v>
       </c>
       <c r="K22">
-        <v>0.9788193039835716</v>
+        <v>0.9750711021055216</v>
       </c>
       <c r="L22">
-        <v>0.9618532531283819</v>
+        <v>0.9586853907990307</v>
       </c>
       <c r="M22">
-        <v>0.9456594363310641</v>
+        <v>0.8993586095965107</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9323788564488067</v>
+        <v>0.9287011754737596</v>
       </c>
       <c r="D23">
-        <v>0.9656847295777409</v>
+        <v>0.9620349770463037</v>
       </c>
       <c r="E23">
-        <v>0.9486666814869796</v>
+        <v>0.9456137910274302</v>
       </c>
       <c r="F23">
-        <v>0.933024870515869</v>
+        <v>0.8872361125543715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02129023124588</v>
+        <v>1.017134041181214</v>
       </c>
       <c r="J23">
-        <v>0.9656604659619997</v>
+        <v>0.9621763830773354</v>
       </c>
       <c r="K23">
-        <v>0.9816386658452794</v>
+        <v>0.9780667341693019</v>
       </c>
       <c r="L23">
-        <v>0.9649902899749598</v>
+        <v>0.9620055917040162</v>
       </c>
       <c r="M23">
-        <v>0.9497041786540934</v>
+        <v>0.905054789646308</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9484045623571067</v>
+        <v>0.9454620640402867</v>
       </c>
       <c r="D24">
-        <v>0.9777281681107013</v>
+        <v>0.9746669308735795</v>
       </c>
       <c r="E24">
-        <v>0.9619794537899676</v>
+        <v>0.9595289908785563</v>
       </c>
       <c r="F24">
-        <v>0.9498398018292449</v>
+        <v>0.9101992657928824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026712910682113</v>
+        <v>1.022395148119869</v>
       </c>
       <c r="J24">
-        <v>0.9780443423975007</v>
+        <v>0.9752341185450716</v>
       </c>
       <c r="K24">
-        <v>0.9921580264160963</v>
+        <v>0.9891540246997805</v>
       </c>
       <c r="L24">
-        <v>0.9767088554439075</v>
+        <v>0.9743061607081619</v>
       </c>
       <c r="M24">
-        <v>0.9648090253876609</v>
+        <v>0.9260110323899844</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654861937007453</v>
+        <v>0.9631392866292959</v>
       </c>
       <c r="D25">
-        <v>0.9906005935015305</v>
+        <v>0.9880306327647419</v>
       </c>
       <c r="E25">
-        <v>0.9762233080316423</v>
+        <v>0.9742602313044417</v>
       </c>
       <c r="F25">
-        <v>0.9677921976892876</v>
+        <v>0.9341786442419038</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03242386747971</v>
+        <v>1.027886138566888</v>
       </c>
       <c r="J25">
-        <v>0.9912336519260964</v>
+        <v>0.9889741866324697</v>
       </c>
       <c r="K25">
-        <v>1.00334659691716</v>
+        <v>1.000817643698803</v>
       </c>
       <c r="L25">
-        <v>0.9892022924282988</v>
+        <v>0.9872717138891368</v>
       </c>
       <c r="M25">
-        <v>0.9809119601629944</v>
+        <v>0.9478926014699731</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9761092424958007</v>
+        <v>0.9623819948113489</v>
       </c>
       <c r="D2">
-        <v>0.9978571589815696</v>
+        <v>0.9873852900689256</v>
       </c>
       <c r="E2">
-        <v>0.9851032904095772</v>
+        <v>0.9730860281455346</v>
       </c>
       <c r="F2">
-        <v>0.9516498567912032</v>
+        <v>0.9371240328082151</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031864757317493</v>
+        <v>1.028857264345169</v>
       </c>
       <c r="J2">
-        <v>0.9990287833576265</v>
+        <v>0.9857491746757117</v>
       </c>
       <c r="K2">
-        <v>1.009346427930359</v>
+        <v>0.9990232110790085</v>
       </c>
       <c r="L2">
-        <v>0.996774136746166</v>
+        <v>0.9849335031637391</v>
       </c>
       <c r="M2">
-        <v>0.9638265745183683</v>
+        <v>0.9495348647804144</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9849839826748344</v>
+        <v>0.9725848852604255</v>
       </c>
       <c r="D3">
-        <v>1.004588928439301</v>
+        <v>0.9950735953190875</v>
       </c>
       <c r="E3">
-        <v>0.9925389991379781</v>
+        <v>0.9816779861521594</v>
       </c>
       <c r="F3">
-        <v>0.9635575574914279</v>
+        <v>0.9505218808088199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034556416794325</v>
+        <v>1.031662240426238</v>
       </c>
       <c r="J3">
-        <v>1.005892541596339</v>
+        <v>0.9938518774722344</v>
       </c>
       <c r="K3">
-        <v>1.015163427871043</v>
+        <v>1.005769900927621</v>
       </c>
       <c r="L3">
-        <v>1.003268243472127</v>
+        <v>0.9925507955873948</v>
       </c>
       <c r="M3">
-        <v>0.9746789855722535</v>
+        <v>0.9618295944696591</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9905052980804547</v>
+        <v>0.9788981061970836</v>
       </c>
       <c r="D4">
-        <v>1.008779457783588</v>
+        <v>0.9998336373101475</v>
       </c>
       <c r="E4">
-        <v>0.9971715726959729</v>
+        <v>0.9870016838107601</v>
       </c>
       <c r="F4">
-        <v>0.970950078774232</v>
+        <v>0.9587931451197911</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036216275100004</v>
+        <v>1.033381803874517</v>
       </c>
       <c r="J4">
-        <v>1.010155037644832</v>
+        <v>0.998857449433085</v>
       </c>
       <c r="K4">
-        <v>1.018773064840566</v>
+        <v>1.009934070597725</v>
       </c>
       <c r="L4">
-        <v>1.007304254640283</v>
+        <v>0.9972595606303489</v>
       </c>
       <c r="M4">
-        <v>0.9814122337364772</v>
+        <v>0.9694157297284354</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927773454349238</v>
+        <v>0.9814888124505523</v>
       </c>
       <c r="D5">
-        <v>1.010504302014922</v>
+        <v>1.001787409224016</v>
       </c>
       <c r="E5">
-        <v>0.9990793350551769</v>
+        <v>0.9891878951883948</v>
       </c>
       <c r="F5">
-        <v>0.9739891234932532</v>
+        <v>0.9621837794940862</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036895705717119</v>
+        <v>1.034083489690615</v>
       </c>
       <c r="J5">
-        <v>1.011907186685935</v>
+        <v>1.000909546653734</v>
       </c>
       <c r="K5">
-        <v>1.020256118250215</v>
+        <v>1.011640249597604</v>
       </c>
       <c r="L5">
-        <v>1.008964004895245</v>
+        <v>0.9991906627022386</v>
       </c>
       <c r="M5">
-        <v>0.9841791818140502</v>
+        <v>0.9725244193752529</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9931560557413567</v>
+        <v>0.9819202399896682</v>
       </c>
       <c r="D6">
-        <v>1.010791823511692</v>
+        <v>1.00211278785341</v>
       </c>
       <c r="E6">
-        <v>0.9993974063887995</v>
+        <v>0.9895520501389744</v>
       </c>
       <c r="F6">
-        <v>0.9744955216867928</v>
+        <v>0.9627482326675303</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037008740375751</v>
+        <v>1.034200104898352</v>
       </c>
       <c r="J6">
-        <v>1.012199126897742</v>
+        <v>1.001251161083585</v>
       </c>
       <c r="K6">
-        <v>1.020503177646828</v>
+        <v>1.011924218997374</v>
       </c>
       <c r="L6">
-        <v>1.009240589996</v>
+        <v>0.9995121739212052</v>
       </c>
       <c r="M6">
-        <v>0.9846401751717955</v>
+        <v>0.9730418691386058</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9905358455172222</v>
+        <v>0.9789329653306635</v>
       </c>
       <c r="D7">
-        <v>1.008802646666184</v>
+        <v>0.9998599247795416</v>
       </c>
       <c r="E7">
-        <v>0.9971972168286389</v>
+        <v>0.9870310942772635</v>
       </c>
       <c r="F7">
-        <v>0.9709909494250369</v>
+        <v>0.9588387806965532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036225424379934</v>
+        <v>1.0333912612173</v>
       </c>
       <c r="J7">
-        <v>1.010178602640683</v>
+        <v>0.9988850693393628</v>
       </c>
       <c r="K7">
-        <v>1.018793013685265</v>
+        <v>1.009957038646107</v>
       </c>
       <c r="L7">
-        <v>1.007326574213894</v>
+        <v>0.9972855493631833</v>
       </c>
       <c r="M7">
-        <v>0.9814494494384437</v>
+        <v>0.9694575749801848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9791567794435873</v>
+        <v>0.9658936202372209</v>
       </c>
       <c r="D8">
-        <v>1.000168187655378</v>
+        <v>0.9900307042967293</v>
       </c>
       <c r="E8">
-        <v>0.9876551983542962</v>
+        <v>0.9760415373130998</v>
       </c>
       <c r="F8">
-        <v>0.9557427379159443</v>
+        <v>0.9417399704533321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0327921376497</v>
+        <v>1.029826037404112</v>
       </c>
       <c r="J8">
-        <v>1.001387373859223</v>
+        <v>0.9885396569938929</v>
       </c>
       <c r="K8">
-        <v>1.011345881214002</v>
+        <v>1.001347431155717</v>
       </c>
       <c r="L8">
-        <v>0.9990050257471539</v>
+        <v>0.987556128025683</v>
       </c>
       <c r="M8">
-        <v>0.9675575591232631</v>
+        <v>0.9537715539436113</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9572091050935163</v>
+        <v>0.9403945219181379</v>
       </c>
       <c r="D9">
-        <v>0.9835433474360161</v>
+        <v>0.9708455376233672</v>
       </c>
       <c r="E9">
-        <v>0.9693121736789854</v>
+        <v>0.9546220233246039</v>
       </c>
       <c r="F9">
-        <v>0.9261580286326661</v>
+        <v>0.9080857271224525</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026051906411096</v>
+        <v>1.022724740947426</v>
       </c>
       <c r="J9">
-        <v>0.9843689939185196</v>
+        <v>0.968243130842544</v>
       </c>
       <c r="K9">
-        <v>0.9969091871544082</v>
+        <v>0.9844300258496651</v>
       </c>
       <c r="L9">
-        <v>0.982923567930382</v>
+        <v>0.9684968904378064</v>
       </c>
       <c r="M9">
-        <v>0.9405746680215664</v>
+        <v>0.9228696546201361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9409613676757377</v>
+        <v>0.9211520154937036</v>
       </c>
       <c r="D10">
-        <v>0.971270895957042</v>
+        <v>0.9564158367982299</v>
       </c>
       <c r="E10">
-        <v>0.9557873181526305</v>
+        <v>0.9385250872772353</v>
       </c>
       <c r="F10">
-        <v>0.9040570873933294</v>
+        <v>0.8824284292750348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020986937666408</v>
+        <v>1.017285494482969</v>
       </c>
       <c r="J10">
-        <v>0.9717303340589092</v>
+        <v>0.952885254414963</v>
       </c>
       <c r="K10">
-        <v>0.9861789879787771</v>
+        <v>0.9716192801549316</v>
       </c>
       <c r="L10">
-        <v>0.9710035246403604</v>
+        <v>0.9541006888824074</v>
       </c>
       <c r="M10">
-        <v>0.9204053823676294</v>
+        <v>0.8993032438901644</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9334434250402106</v>
+        <v>0.9121181411334046</v>
       </c>
       <c r="D11">
-        <v>0.9656047079853922</v>
+        <v>0.9496596197571925</v>
       </c>
       <c r="E11">
-        <v>0.9495455789237049</v>
+        <v>0.9309891651643496</v>
       </c>
       <c r="F11">
-        <v>0.8937588136658104</v>
+        <v>0.870284292199205</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018627039992202</v>
+        <v>1.014715322416517</v>
       </c>
       <c r="J11">
-        <v>0.9658733892805056</v>
+        <v>0.9456661889313368</v>
       </c>
       <c r="K11">
-        <v>0.9812057868840334</v>
+        <v>0.9655977047354811</v>
       </c>
       <c r="L11">
-        <v>0.9654861283044928</v>
+        <v>0.9473414549506248</v>
       </c>
       <c r="M11">
-        <v>0.9110069747962318</v>
+        <v>0.8881510816687672</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9305676242793882</v>
+        <v>0.9086374925564281</v>
       </c>
       <c r="D12">
-        <v>0.9634395230614181</v>
+        <v>0.9470599790725374</v>
       </c>
       <c r="E12">
-        <v>0.9471607519940723</v>
+        <v>0.9280894074772158</v>
       </c>
       <c r="F12">
-        <v>0.8898058831809296</v>
+        <v>0.8655860776637521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017722031819513</v>
+        <v>1.013722847841481</v>
       </c>
       <c r="J12">
-        <v>0.9636316648162159</v>
+        <v>0.9428835059815086</v>
       </c>
       <c r="K12">
-        <v>0.9793023625954264</v>
+        <v>0.9632769197740546</v>
       </c>
       <c r="L12">
-        <v>0.9633754643136756</v>
+        <v>0.9447373868769624</v>
       </c>
       <c r="M12">
-        <v>0.9073997194086741</v>
+        <v>0.8838374764590287</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9311884634466535</v>
+        <v>0.9093901416200016</v>
       </c>
       <c r="D13">
-        <v>0.9639068418496032</v>
+        <v>0.9476219519501451</v>
       </c>
       <c r="E13">
-        <v>0.9476754657765273</v>
+        <v>0.9287162667768347</v>
       </c>
       <c r="F13">
-        <v>0.8906599213882326</v>
+        <v>0.8666029615322898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01791750881553</v>
+        <v>1.013937553468628</v>
       </c>
       <c r="J13">
-        <v>0.9641156748229526</v>
+        <v>0.9434852836560673</v>
       </c>
       <c r="K13">
-        <v>0.9797133253222454</v>
+        <v>0.9637787890865981</v>
       </c>
       <c r="L13">
-        <v>0.9638311253904069</v>
+        <v>0.9453004724133899</v>
       </c>
       <c r="M13">
-        <v>0.9081790561881146</v>
+        <v>0.8847710677046307</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9332074810833969</v>
+        <v>0.9118331150988447</v>
       </c>
       <c r="D14">
-        <v>0.9654270176647254</v>
+        <v>0.9494466640963606</v>
       </c>
       <c r="E14">
-        <v>0.9493498580918135</v>
+        <v>0.9307516283895231</v>
       </c>
       <c r="F14">
-        <v>0.8934347898546844</v>
+        <v>0.8698999786554457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018552834180566</v>
+        <v>1.014634092797654</v>
       </c>
       <c r="J14">
-        <v>0.9656894938146815</v>
+        <v>0.9454383433753322</v>
       </c>
       <c r="K14">
-        <v>0.9810496412242505</v>
+        <v>0.9654076712046908</v>
       </c>
       <c r="L14">
-        <v>0.9653129611472496</v>
+        <v>0.9471282054913056</v>
       </c>
       <c r="M14">
-        <v>0.9107112787784217</v>
+        <v>0.887798208767322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.934440061314664</v>
+        <v>0.9133210549124274</v>
       </c>
       <c r="D15">
-        <v>0.9663553733011323</v>
+        <v>0.9505585142133997</v>
       </c>
       <c r="E15">
-        <v>0.950372426419465</v>
+        <v>0.9319918117313675</v>
       </c>
       <c r="F15">
-        <v>0.8951269348282037</v>
+        <v>0.8719054308277816</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018940396595932</v>
+        <v>1.015058053382395</v>
       </c>
       <c r="J15">
-        <v>0.9666501185429894</v>
+        <v>0.9466277299184565</v>
       </c>
       <c r="K15">
-        <v>0.9818653107906451</v>
+        <v>0.9663996878705799</v>
       </c>
       <c r="L15">
-        <v>0.9662175890693436</v>
+        <v>0.9482414547266554</v>
       </c>
       <c r="M15">
-        <v>0.9122555006702259</v>
+        <v>0.8896396324230897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.941449273213656</v>
+        <v>0.9217352261920632</v>
       </c>
       <c r="D16">
-        <v>0.9716389112836749</v>
+        <v>0.9568524322894463</v>
       </c>
       <c r="E16">
-        <v>0.9561927611831345</v>
+        <v>0.9390120681823789</v>
       </c>
       <c r="F16">
-        <v>0.9047237425305495</v>
+        <v>0.8832100905780378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021139770989411</v>
+        <v>1.017451104068032</v>
       </c>
       <c r="J16">
-        <v>0.9721102634630192</v>
+        <v>0.9533511293640913</v>
       </c>
       <c r="K16">
-        <v>0.9865015887799724</v>
+        <v>0.9720079019878713</v>
       </c>
       <c r="L16">
-        <v>0.9713615712144279</v>
+        <v>0.9545370627113389</v>
       </c>
       <c r="M16">
-        <v>0.9210138037173484</v>
+        <v>0.9000211407809025</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9457098602178472</v>
+        <v>0.9268131071700423</v>
       </c>
       <c r="D17">
-        <v>0.9748539887144874</v>
+        <v>0.9606558450044221</v>
       </c>
       <c r="E17">
-        <v>0.9597351045964754</v>
+        <v>0.9432544935864056</v>
       </c>
       <c r="F17">
-        <v>0.910536964990134</v>
+        <v>0.8900045589068331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022472573002994</v>
+        <v>1.018891222539894</v>
       </c>
       <c r="J17">
-        <v>0.9754269685658631</v>
+        <v>0.9574064184591707</v>
       </c>
       <c r="K17">
-        <v>0.9893177677550351</v>
+        <v>0.9753907754007721</v>
       </c>
       <c r="L17">
-        <v>0.9744879823522674</v>
+        <v>0.958336432228913</v>
       </c>
       <c r="M17">
-        <v>0.9263192314383283</v>
+        <v>0.9062616430064663</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9481492686195881</v>
+        <v>0.9297088110035864</v>
       </c>
       <c r="D18">
-        <v>0.9766959042845517</v>
+        <v>0.962826388591183</v>
       </c>
       <c r="E18">
-        <v>0.9617647676435399</v>
+        <v>0.9456756765065866</v>
       </c>
       <c r="F18">
-        <v>0.9138588711380325</v>
+        <v>0.8938704321068736</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023234149956827</v>
+        <v>1.01971092001046</v>
       </c>
       <c r="J18">
-        <v>0.9773251233020686</v>
+        <v>0.9597181559498549</v>
       </c>
       <c r="K18">
-        <v>0.9909293982921968</v>
+        <v>0.9773191965425834</v>
       </c>
       <c r="L18">
-        <v>0.9762778276164137</v>
+        <v>0.9605029817903217</v>
       </c>
       <c r="M18">
-        <v>0.9293509211432146</v>
+        <v>0.9098124983094702</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9489735795181148</v>
+        <v>0.9306854638083016</v>
       </c>
       <c r="D19">
-        <v>0.9773184920803635</v>
+        <v>0.9635587175278925</v>
       </c>
       <c r="E19">
-        <v>0.9624508627863563</v>
+        <v>0.946492593262791</v>
       </c>
       <c r="F19">
-        <v>0.9149803634974207</v>
+        <v>0.8951729256373161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023491235199245</v>
+        <v>1.01998711597682</v>
       </c>
       <c r="J19">
-        <v>0.9779663942835375</v>
+        <v>0.9604977083191895</v>
       </c>
       <c r="K19">
-        <v>0.9914738539514666</v>
+        <v>0.9779694814350395</v>
       </c>
       <c r="L19">
-        <v>0.976882605463715</v>
+        <v>0.9612336885496013</v>
       </c>
       <c r="M19">
-        <v>0.9303744202312054</v>
+        <v>0.9110088733718593</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9452575391015159</v>
+        <v>0.9262752641754124</v>
       </c>
       <c r="D20">
-        <v>0.9745125441702162</v>
+        <v>0.9602528190288647</v>
       </c>
       <c r="E20">
-        <v>0.9593588780341255</v>
+        <v>0.9428049388015316</v>
       </c>
       <c r="F20">
-        <v>0.9099205006790403</v>
+        <v>0.8892858339797763</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022331234832142</v>
+        <v>1.018738846078618</v>
       </c>
       <c r="J20">
-        <v>0.9750749400913553</v>
+        <v>0.9569769726330092</v>
       </c>
       <c r="K20">
-        <v>0.9890188707109904</v>
+        <v>0.9750325353789806</v>
       </c>
       <c r="L20">
-        <v>0.9741560884528149</v>
+        <v>0.9579340134301892</v>
       </c>
       <c r="M20">
-        <v>0.9257566188827868</v>
+        <v>0.9056014959733986</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9326153293876209</v>
+        <v>0.9111173592746751</v>
       </c>
       <c r="D21">
-        <v>0.9649811038860768</v>
+        <v>0.9489119489880663</v>
       </c>
       <c r="E21">
-        <v>0.9488587009836774</v>
+        <v>0.9301551894328518</v>
       </c>
       <c r="F21">
-        <v>0.8926213545051221</v>
+        <v>0.8689345676157179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018366562758618</v>
+        <v>1.014430074978738</v>
       </c>
       <c r="J21">
-        <v>0.9652279482690045</v>
+        <v>0.9448661589709035</v>
       </c>
       <c r="K21">
-        <v>0.9806577442233901</v>
+        <v>0.9649304494849539</v>
       </c>
       <c r="L21">
-        <v>0.9648783598601693</v>
+        <v>0.9465926986316182</v>
       </c>
       <c r="M21">
-        <v>0.9099689634745013</v>
+        <v>0.8869117933238564</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9241773848138057</v>
+        <v>0.9008489386570926</v>
       </c>
       <c r="D22">
-        <v>0.9586330686055368</v>
+        <v>0.9412502210008843</v>
       </c>
       <c r="E22">
-        <v>0.9418671116306924</v>
+        <v>0.9216084221407783</v>
       </c>
       <c r="F22">
-        <v>0.8809932194343744</v>
+        <v>0.8550309129216859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015706994857634</v>
+        <v>1.011498249767169</v>
       </c>
       <c r="J22">
-        <v>0.9586480317979488</v>
+        <v>0.9366545123236106</v>
       </c>
       <c r="K22">
-        <v>0.9750711021055216</v>
+        <v>0.9580828368198139</v>
       </c>
       <c r="L22">
-        <v>0.9586853907990307</v>
+        <v>0.9389110367046462</v>
       </c>
       <c r="M22">
-        <v>0.8993586095965107</v>
+        <v>0.8741486760270426</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9287011754737596</v>
+        <v>0.9063705801587906</v>
       </c>
       <c r="D23">
-        <v>0.9620349770463037</v>
+        <v>0.945367938180967</v>
       </c>
       <c r="E23">
-        <v>0.9456137910274302</v>
+        <v>0.9262019632729149</v>
       </c>
       <c r="F23">
-        <v>0.8872361125543715</v>
+        <v>0.8625200687846479</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017134041181214</v>
+        <v>1.013075872846543</v>
       </c>
       <c r="J23">
-        <v>0.9621763830773354</v>
+        <v>0.9410708260701217</v>
       </c>
       <c r="K23">
-        <v>0.9780667341693019</v>
+        <v>0.9617652559929988</v>
       </c>
       <c r="L23">
-        <v>0.9620055917040162</v>
+        <v>0.9430414746504536</v>
       </c>
       <c r="M23">
-        <v>0.905054789646308</v>
+        <v>0.8810227751036385</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9454620640402867</v>
+        <v>0.9265184952393517</v>
       </c>
       <c r="D24">
-        <v>0.9746669308735795</v>
+        <v>0.9604350762193193</v>
       </c>
       <c r="E24">
-        <v>0.9595289908785563</v>
+        <v>0.9430082370048806</v>
       </c>
       <c r="F24">
-        <v>0.9101992657928824</v>
+        <v>0.8896108929903591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022395148119869</v>
+        <v>1.018807760774641</v>
       </c>
       <c r="J24">
-        <v>0.9752341185450716</v>
+        <v>0.9571711853557097</v>
       </c>
       <c r="K24">
-        <v>0.9891540246997805</v>
+        <v>0.975194545992452</v>
       </c>
       <c r="L24">
-        <v>0.9743061607081619</v>
+        <v>0.9581160012698262</v>
       </c>
       <c r="M24">
-        <v>0.9260110323899844</v>
+        <v>0.905900061344821</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9631392866292959</v>
+        <v>0.947334814977761</v>
       </c>
       <c r="D25">
-        <v>0.9880306327647419</v>
+        <v>0.9760611442162094</v>
       </c>
       <c r="E25">
-        <v>0.9742602313044417</v>
+        <v>0.960442242788454</v>
       </c>
       <c r="F25">
-        <v>0.9341786442419038</v>
+        <v>0.9172797111431445</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027886138566888</v>
+        <v>1.02467157004282</v>
       </c>
       <c r="J25">
-        <v>0.9889741866324697</v>
+        <v>0.9737745426495731</v>
       </c>
       <c r="K25">
-        <v>1.000817643698803</v>
+        <v>0.9890428068154088</v>
       </c>
       <c r="L25">
-        <v>0.9872717138891368</v>
+        <v>0.9736873380972483</v>
       </c>
       <c r="M25">
-        <v>0.9478926014699731</v>
+        <v>0.9313139626234914</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9623819948113489</v>
+        <v>1.027388102864774</v>
       </c>
       <c r="D2">
-        <v>0.9873852900689256</v>
+        <v>1.03079118328872</v>
       </c>
       <c r="E2">
-        <v>0.9730860281455346</v>
+        <v>1.027386650394401</v>
       </c>
       <c r="F2">
-        <v>0.9371240328082151</v>
+        <v>1.025920811995852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028857264345169</v>
+        <v>1.029688338125137</v>
       </c>
       <c r="J2">
-        <v>0.9857491746757117</v>
+        <v>1.032546254803232</v>
       </c>
       <c r="K2">
-        <v>0.9990232110790085</v>
+        <v>1.033601172550376</v>
       </c>
       <c r="L2">
-        <v>0.9849335031637391</v>
+        <v>1.030206529170885</v>
       </c>
       <c r="M2">
-        <v>0.9495348647804144</v>
+        <v>1.028744970734982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9725848852604255</v>
+        <v>1.029210797770532</v>
       </c>
       <c r="D3">
-        <v>0.9950735953190875</v>
+        <v>1.032161511241162</v>
       </c>
       <c r="E3">
-        <v>0.9816779861521594</v>
+        <v>1.028964918901997</v>
       </c>
       <c r="F3">
-        <v>0.9505218808088199</v>
+        <v>1.028391611944887</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031662240426238</v>
+        <v>1.030078471264797</v>
       </c>
       <c r="J3">
-        <v>0.9938518774722344</v>
+        <v>1.034004631635953</v>
       </c>
       <c r="K3">
-        <v>1.005769900927621</v>
+        <v>1.034778421433916</v>
       </c>
       <c r="L3">
-        <v>0.9925507955873948</v>
+        <v>1.031590430017403</v>
       </c>
       <c r="M3">
-        <v>0.9618295944696591</v>
+        <v>1.031018671749184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9788981061970836</v>
+        <v>1.030385608663026</v>
       </c>
       <c r="D4">
-        <v>0.9998336373101475</v>
+        <v>1.033044086593452</v>
       </c>
       <c r="E4">
-        <v>0.9870016838107601</v>
+        <v>1.029982246430839</v>
       </c>
       <c r="F4">
-        <v>0.9587931451197911</v>
+        <v>1.029984943621277</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033381803874517</v>
+        <v>1.030327797982162</v>
       </c>
       <c r="J4">
-        <v>0.998857449433085</v>
+        <v>1.034943526352196</v>
       </c>
       <c r="K4">
-        <v>1.009934070597725</v>
+        <v>1.035535549548722</v>
       </c>
       <c r="L4">
-        <v>0.9972595606303489</v>
+        <v>1.032481525277856</v>
       </c>
       <c r="M4">
-        <v>0.9694157297284354</v>
+        <v>1.032484215561182</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9814888124505523</v>
+        <v>1.030878422396736</v>
       </c>
       <c r="D5">
-        <v>1.001787409224016</v>
+        <v>1.033414151611036</v>
       </c>
       <c r="E5">
-        <v>0.9891878951883948</v>
+        <v>1.030409011911067</v>
       </c>
       <c r="F5">
-        <v>0.9621837794940862</v>
+        <v>1.030653514811744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034083489690615</v>
+        <v>1.030431875041359</v>
       </c>
       <c r="J5">
-        <v>1.000909546653734</v>
+        <v>1.035337114287145</v>
       </c>
       <c r="K5">
-        <v>1.011640249597604</v>
+        <v>1.035852753030572</v>
       </c>
       <c r="L5">
-        <v>0.9991906627022386</v>
+        <v>1.032855110586847</v>
       </c>
       <c r="M5">
-        <v>0.9725244193752529</v>
+        <v>1.033099001739449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9819202399896682</v>
+        <v>1.030961105517148</v>
       </c>
       <c r="D6">
-        <v>1.00211278785341</v>
+        <v>1.033476230764102</v>
       </c>
       <c r="E6">
-        <v>0.9895520501389744</v>
+        <v>1.030480614366127</v>
       </c>
       <c r="F6">
-        <v>0.9627482326675303</v>
+        <v>1.030765697720659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034200104898352</v>
+        <v>1.030449306821587</v>
       </c>
       <c r="J6">
-        <v>1.001251161083585</v>
+        <v>1.03540313410845</v>
       </c>
       <c r="K6">
-        <v>1.011924218997374</v>
+        <v>1.035905949230033</v>
       </c>
       <c r="L6">
-        <v>0.9995121739212052</v>
+        <v>1.032917777247752</v>
       </c>
       <c r="M6">
-        <v>0.9730418691386058</v>
+        <v>1.033202150135097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9789329653306635</v>
+        <v>1.030392197863891</v>
       </c>
       <c r="D7">
-        <v>0.9998599247795416</v>
+        <v>1.033049035208335</v>
       </c>
       <c r="E7">
-        <v>0.9870310942772635</v>
+        <v>1.029987952477596</v>
       </c>
       <c r="F7">
-        <v>0.9588387806965532</v>
+        <v>1.029993882024683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0333912612173</v>
+        <v>1.030329191564081</v>
       </c>
       <c r="J7">
-        <v>0.9988850693393628</v>
+        <v>1.034948789881744</v>
       </c>
       <c r="K7">
-        <v>1.009957038646107</v>
+        <v>1.035539792311753</v>
       </c>
       <c r="L7">
-        <v>0.9972855493631833</v>
+        <v>1.032486521170753</v>
       </c>
       <c r="M7">
-        <v>0.9694575749801848</v>
+        <v>1.032492435537804</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9658936202372209</v>
+        <v>1.028005056527365</v>
       </c>
       <c r="D8">
-        <v>0.9900307042967293</v>
+        <v>1.031255154672267</v>
       </c>
       <c r="E8">
-        <v>0.9760415373130998</v>
+        <v>1.027920856266567</v>
       </c>
       <c r="F8">
-        <v>0.9417399704533321</v>
+        <v>1.02675697953702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029826037404112</v>
+        <v>1.029820834150756</v>
       </c>
       <c r="J8">
-        <v>0.9885396569938929</v>
+        <v>1.033040119896044</v>
       </c>
       <c r="K8">
-        <v>1.001347431155717</v>
+        <v>1.033999997460164</v>
       </c>
       <c r="L8">
-        <v>0.987556128025683</v>
+        <v>1.030675142812246</v>
       </c>
       <c r="M8">
-        <v>0.9537715539436113</v>
+        <v>1.029514578218143</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9403945219181379</v>
+        <v>1.023762369543413</v>
       </c>
       <c r="D9">
-        <v>0.9708455376233672</v>
+        <v>1.028061826352144</v>
       </c>
       <c r="E9">
-        <v>0.9546220233246039</v>
+        <v>1.024247507504275</v>
       </c>
       <c r="F9">
-        <v>0.9080857271224525</v>
+        <v>1.021009788581188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022724740947426</v>
+        <v>1.028900911511854</v>
       </c>
       <c r="J9">
-        <v>0.968243130842544</v>
+        <v>1.029639378597748</v>
       </c>
       <c r="K9">
-        <v>0.9844300258496651</v>
+        <v>1.03125051879773</v>
       </c>
       <c r="L9">
-        <v>0.9684968904378064</v>
+        <v>1.027448906160816</v>
       </c>
       <c r="M9">
-        <v>0.9228696546201361</v>
+        <v>1.024222054496853</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9211520154937036</v>
+        <v>1.020908066339006</v>
       </c>
       <c r="D10">
-        <v>0.9564158367982299</v>
+        <v>1.02591019285647</v>
       </c>
       <c r="E10">
-        <v>0.9385250872772353</v>
+        <v>1.021776651489312</v>
       </c>
       <c r="F10">
-        <v>0.8824284292750348</v>
+        <v>1.017146806851837</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017285494482969</v>
+        <v>1.028271021615735</v>
       </c>
       <c r="J10">
-        <v>0.952885254414963</v>
+        <v>1.02734583275971</v>
       </c>
       <c r="K10">
-        <v>0.9716192801549316</v>
+        <v>1.029392232751239</v>
       </c>
       <c r="L10">
-        <v>0.9541006888824074</v>
+        <v>1.025273850195779</v>
       </c>
       <c r="M10">
-        <v>0.8993032438901644</v>
+        <v>1.020661146287537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9121181411334046</v>
+        <v>1.019665658498755</v>
       </c>
       <c r="D11">
-        <v>0.9496596197571925</v>
+        <v>1.024972881107236</v>
       </c>
       <c r="E11">
-        <v>0.9309891651643496</v>
+        <v>1.020701263889504</v>
       </c>
       <c r="F11">
-        <v>0.870284292199205</v>
+        <v>1.015466083675844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014715322416517</v>
+        <v>1.027994246508848</v>
       </c>
       <c r="J11">
-        <v>0.9456661889313368</v>
+        <v>1.026346168085579</v>
       </c>
       <c r="K11">
-        <v>0.9655977047354811</v>
+        <v>1.028581351257984</v>
       </c>
       <c r="L11">
-        <v>0.9473414549506248</v>
+        <v>1.024326024664469</v>
       </c>
       <c r="M11">
-        <v>0.8881510816687672</v>
+        <v>1.019111017244328</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9086374925564281</v>
+        <v>1.019203171090338</v>
       </c>
       <c r="D12">
-        <v>0.9470599790725374</v>
+        <v>1.024623853929373</v>
       </c>
       <c r="E12">
-        <v>0.9280894074772158</v>
+        <v>1.020300968517793</v>
       </c>
       <c r="F12">
-        <v>0.8655860776637521</v>
+        <v>1.014840536117971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013722847841481</v>
+        <v>1.027890827077006</v>
       </c>
       <c r="J12">
-        <v>0.9428835059815086</v>
+        <v>1.025973840933575</v>
       </c>
       <c r="K12">
-        <v>0.9632769197740546</v>
+        <v>1.028279198215507</v>
       </c>
       <c r="L12">
-        <v>0.9447373868769624</v>
+        <v>1.023973034662332</v>
       </c>
       <c r="M12">
-        <v>0.8838374764590287</v>
+        <v>1.01853395063955</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9093901416200016</v>
+        <v>1.019302422012985</v>
       </c>
       <c r="D13">
-        <v>0.9476219519501451</v>
+        <v>1.024698761048725</v>
       </c>
       <c r="E13">
-        <v>0.9287162667768347</v>
+        <v>1.020386872015344</v>
       </c>
       <c r="F13">
-        <v>0.8666029615322898</v>
+        <v>1.014974775604908</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013937553468628</v>
+        <v>1.02791303875128</v>
       </c>
       <c r="J13">
-        <v>0.9434852836560673</v>
+        <v>1.026053752338059</v>
       </c>
       <c r="K13">
-        <v>0.9637787890865981</v>
+        <v>1.028344054623748</v>
       </c>
       <c r="L13">
-        <v>0.9453004724133899</v>
+        <v>1.024048794452074</v>
       </c>
       <c r="M13">
-        <v>0.8847710677046307</v>
+        <v>1.018657791988022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9118331150988447</v>
+        <v>1.019627449751082</v>
       </c>
       <c r="D14">
-        <v>0.9494466640963606</v>
+        <v>1.024944048235637</v>
       </c>
       <c r="E14">
-        <v>0.9307516283895231</v>
+        <v>1.020668192797182</v>
       </c>
       <c r="F14">
-        <v>0.8698999786554457</v>
+        <v>1.015414401533084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014634092797654</v>
+        <v>1.027985710372296</v>
       </c>
       <c r="J14">
-        <v>0.9454383433753322</v>
+        <v>1.026315412093499</v>
       </c>
       <c r="K14">
-        <v>0.9654076712046908</v>
+        <v>1.028556394799374</v>
       </c>
       <c r="L14">
-        <v>0.9471282054913056</v>
+        <v>1.024296865408213</v>
       </c>
       <c r="M14">
-        <v>0.887798208767322</v>
+        <v>1.019063343093954</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9133210549124274</v>
+        <v>1.019827576443929</v>
       </c>
       <c r="D15">
-        <v>0.9505585142133997</v>
+        <v>1.025095062148494</v>
       </c>
       <c r="E15">
-        <v>0.9319918117313675</v>
+        <v>1.0208414106628</v>
       </c>
       <c r="F15">
-        <v>0.8719054308277816</v>
+        <v>1.015685102260009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015058053382395</v>
+        <v>1.02803040432104</v>
       </c>
       <c r="J15">
-        <v>0.9466277299184565</v>
+        <v>1.026476495118641</v>
       </c>
       <c r="K15">
-        <v>0.9663996878705799</v>
+        <v>1.028687097385053</v>
       </c>
       <c r="L15">
-        <v>0.9482414547266554</v>
+        <v>1.024449586817804</v>
       </c>
       <c r="M15">
-        <v>0.8896396324230897</v>
+        <v>1.019313045653444</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9217352261920632</v>
+        <v>1.020990381962374</v>
       </c>
       <c r="D16">
-        <v>0.9568524322894463</v>
+        <v>1.025972278576817</v>
       </c>
       <c r="E16">
-        <v>0.9390120681823789</v>
+        <v>1.021847903733155</v>
       </c>
       <c r="F16">
-        <v>0.8832100905780378</v>
+        <v>1.017258177874437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017451104068032</v>
+        <v>1.028289304745706</v>
       </c>
       <c r="J16">
-        <v>0.9533511293640913</v>
+        <v>1.027412037294556</v>
       </c>
       <c r="K16">
-        <v>0.9720079019878713</v>
+        <v>1.029445915352658</v>
       </c>
       <c r="L16">
-        <v>0.9545370627113389</v>
+        <v>1.025336625705897</v>
       </c>
       <c r="M16">
-        <v>0.9000211407809025</v>
+        <v>1.020763846161115</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9268131071700423</v>
+        <v>1.021718025145026</v>
       </c>
       <c r="D17">
-        <v>0.9606558450044221</v>
+        <v>1.026521008864444</v>
       </c>
       <c r="E17">
-        <v>0.9432544935864056</v>
+        <v>1.022477763685838</v>
       </c>
       <c r="F17">
-        <v>0.8900045589068331</v>
+        <v>1.018242745309833</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018891222539894</v>
+        <v>1.028450622256203</v>
       </c>
       <c r="J17">
-        <v>0.9574064184591707</v>
+        <v>1.027997109307553</v>
       </c>
       <c r="K17">
-        <v>0.9753907754007721</v>
+        <v>1.029920219937332</v>
       </c>
       <c r="L17">
-        <v>0.958336432228913</v>
+        <v>1.025891416660287</v>
       </c>
       <c r="M17">
-        <v>0.9062616430064663</v>
+        <v>1.021671660950311</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9297088110035864</v>
+        <v>1.022141824266523</v>
       </c>
       <c r="D18">
-        <v>0.962826388591183</v>
+        <v>1.026840531156086</v>
       </c>
       <c r="E18">
-        <v>0.9456756765065866</v>
+        <v>1.022844622188338</v>
       </c>
       <c r="F18">
-        <v>0.8938704321068736</v>
+        <v>1.018816255548458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01971092001046</v>
+        <v>1.028544327845645</v>
       </c>
       <c r="J18">
-        <v>0.9597181559498549</v>
+        <v>1.028337742135138</v>
       </c>
       <c r="K18">
-        <v>0.9773191965425834</v>
+        <v>1.0301962738641</v>
       </c>
       <c r="L18">
-        <v>0.9605029817903217</v>
+        <v>1.026214438288225</v>
       </c>
       <c r="M18">
-        <v>0.9098124983094702</v>
+        <v>1.02220038259124</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9306854638083016</v>
+        <v>1.022286224039145</v>
       </c>
       <c r="D19">
-        <v>0.9635587175278925</v>
+        <v>1.026949388546213</v>
       </c>
       <c r="E19">
-        <v>0.946492593262791</v>
+        <v>1.022969622582725</v>
       </c>
       <c r="F19">
-        <v>0.8951729256373161</v>
+        <v>1.019011678282565</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01998711597682</v>
+        <v>1.028576213414405</v>
       </c>
       <c r="J19">
-        <v>0.9604977083191895</v>
+        <v>1.028453783025156</v>
       </c>
       <c r="K19">
-        <v>0.9779694814350395</v>
+        <v>1.030290299944441</v>
       </c>
       <c r="L19">
-        <v>0.9612336885496013</v>
+        <v>1.026324482849074</v>
       </c>
       <c r="M19">
-        <v>0.9110088733718593</v>
+        <v>1.02238053006396</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9262752641754124</v>
+        <v>1.021640020548739</v>
       </c>
       <c r="D20">
-        <v>0.9602528190288647</v>
+        <v>1.02646219158951</v>
       </c>
       <c r="E20">
-        <v>0.9428049388015316</v>
+        <v>1.022410240473024</v>
       </c>
       <c r="F20">
-        <v>0.8892858339797763</v>
+        <v>1.018137190652185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018738846078618</v>
+        <v>1.028433354620343</v>
       </c>
       <c r="J20">
-        <v>0.9569769726330092</v>
+        <v>1.027934401931179</v>
       </c>
       <c r="K20">
-        <v>0.9750325353789806</v>
+        <v>1.029869393735215</v>
       </c>
       <c r="L20">
-        <v>0.9579340134301892</v>
+        <v>1.025831952842935</v>
       </c>
       <c r="M20">
-        <v>0.9056014959733986</v>
+        <v>1.021574343177671</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9111173592746751</v>
+        <v>1.019531765072958</v>
       </c>
       <c r="D21">
-        <v>0.9489119489880663</v>
+        <v>1.024871841396066</v>
       </c>
       <c r="E21">
-        <v>0.9301551894328518</v>
+        <v>1.020585374454092</v>
       </c>
       <c r="F21">
-        <v>0.8689345676157179</v>
+        <v>1.015284977594884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014430074978738</v>
+        <v>1.027964327369926</v>
       </c>
       <c r="J21">
-        <v>0.9448661589709035</v>
+        <v>1.026238387815021</v>
       </c>
       <c r="K21">
-        <v>0.9649304494849539</v>
+        <v>1.02849389244507</v>
       </c>
       <c r="L21">
-        <v>0.9465926986316182</v>
+        <v>1.024223840420023</v>
       </c>
       <c r="M21">
-        <v>0.8869117933238564</v>
+        <v>1.018943954073924</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9008489386570926</v>
+        <v>1.01820041029841</v>
       </c>
       <c r="D22">
-        <v>0.9412502210008843</v>
+        <v>1.023866893540325</v>
       </c>
       <c r="E22">
-        <v>0.9216084221407783</v>
+        <v>1.019433087404771</v>
       </c>
       <c r="F22">
-        <v>0.8550309129216859</v>
+        <v>1.013484410090491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011498249767169</v>
+        <v>1.027665881804098</v>
       </c>
       <c r="J22">
-        <v>0.9366545123236106</v>
+        <v>1.02516619700473</v>
       </c>
       <c r="K22">
-        <v>0.9580828368198139</v>
+        <v>1.02762352183618</v>
       </c>
       <c r="L22">
-        <v>0.9389110367046462</v>
+        <v>1.023207390995284</v>
       </c>
       <c r="M22">
-        <v>0.8741486760270426</v>
+        <v>1.017282698574559</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9063705801587906</v>
+        <v>1.018906747236364</v>
       </c>
       <c r="D23">
-        <v>0.945367938180967</v>
+        <v>1.024400119274367</v>
       </c>
       <c r="E23">
-        <v>0.9262019632729149</v>
+        <v>1.020044411050158</v>
       </c>
       <c r="F23">
-        <v>0.8625200687846479</v>
+        <v>1.014439629552488</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013075872846543</v>
+        <v>1.027824432463408</v>
       </c>
       <c r="J23">
-        <v>0.9410708260701217</v>
+        <v>1.025735147264079</v>
       </c>
       <c r="K23">
-        <v>0.9617652559929988</v>
+        <v>1.02808545328471</v>
       </c>
       <c r="L23">
-        <v>0.9430414746504536</v>
+        <v>1.023746746136102</v>
       </c>
       <c r="M23">
-        <v>0.8810227751036385</v>
+        <v>1.018164079893409</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9265184952393517</v>
+        <v>1.021675269391704</v>
       </c>
       <c r="D24">
-        <v>0.9604350762193193</v>
+        <v>1.026488770260924</v>
       </c>
       <c r="E24">
-        <v>0.9430082370048806</v>
+        <v>1.022440752937626</v>
       </c>
       <c r="F24">
-        <v>0.8896108929903591</v>
+        <v>1.018184888639803</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018807760774641</v>
+        <v>1.028441158320963</v>
       </c>
       <c r="J24">
-        <v>0.9571711853557097</v>
+        <v>1.027962738640553</v>
       </c>
       <c r="K24">
-        <v>0.975194545992452</v>
+        <v>1.029892361761262</v>
       </c>
       <c r="L24">
-        <v>0.9581160012698262</v>
+        <v>1.025858823769387</v>
       </c>
       <c r="M24">
-        <v>0.905900061344821</v>
+        <v>1.021618319333701</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.947334814977761</v>
+        <v>1.024863651307452</v>
       </c>
       <c r="D25">
-        <v>0.9760611442162094</v>
+        <v>1.028891310207258</v>
       </c>
       <c r="E25">
-        <v>0.960442242788454</v>
+        <v>1.025200936565805</v>
       </c>
       <c r="F25">
-        <v>0.9172797111431445</v>
+        <v>1.022500954845393</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02467157004282</v>
+        <v>1.029141632367965</v>
       </c>
       <c r="J25">
-        <v>0.9737745426495731</v>
+        <v>1.030523111253799</v>
       </c>
       <c r="K25">
-        <v>0.9890428068154088</v>
+        <v>1.031965711012572</v>
       </c>
       <c r="L25">
-        <v>0.9736873380972483</v>
+        <v>1.028287152545051</v>
       </c>
       <c r="M25">
-        <v>0.9313139626234914</v>
+        <v>1.025595874297711</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027388102864774</v>
+        <v>0.9623819948113495</v>
       </c>
       <c r="D2">
-        <v>1.03079118328872</v>
+        <v>0.9873852900689263</v>
       </c>
       <c r="E2">
-        <v>1.027386650394401</v>
+        <v>0.9730860281455349</v>
       </c>
       <c r="F2">
-        <v>1.025920811995852</v>
+        <v>0.9371240328082158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029688338125137</v>
+        <v>1.02885726434517</v>
       </c>
       <c r="J2">
-        <v>1.032546254803232</v>
+        <v>0.9857491746757122</v>
       </c>
       <c r="K2">
-        <v>1.033601172550376</v>
+        <v>0.999023211079009</v>
       </c>
       <c r="L2">
-        <v>1.030206529170885</v>
+        <v>0.9849335031637394</v>
       </c>
       <c r="M2">
-        <v>1.028744970734982</v>
+        <v>0.9495348647804149</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029210797770532</v>
+        <v>0.9725848852604234</v>
       </c>
       <c r="D3">
-        <v>1.032161511241162</v>
+        <v>0.9950735953190853</v>
       </c>
       <c r="E3">
-        <v>1.028964918901997</v>
+        <v>0.9816779861521571</v>
       </c>
       <c r="F3">
-        <v>1.028391611944887</v>
+        <v>0.9505218808088166</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030078471264797</v>
+        <v>1.031662240426237</v>
       </c>
       <c r="J3">
-        <v>1.034004631635953</v>
+        <v>0.9938518774722319</v>
       </c>
       <c r="K3">
-        <v>1.034778421433916</v>
+        <v>1.005769900927618</v>
       </c>
       <c r="L3">
-        <v>1.031590430017403</v>
+        <v>0.9925507955873923</v>
       </c>
       <c r="M3">
-        <v>1.031018671749184</v>
+        <v>0.9618295944696558</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030385608663026</v>
+        <v>0.9788981061970842</v>
       </c>
       <c r="D4">
-        <v>1.033044086593452</v>
+        <v>0.999833637310148</v>
       </c>
       <c r="E4">
-        <v>1.029982246430839</v>
+        <v>0.9870016838107604</v>
       </c>
       <c r="F4">
-        <v>1.029984943621277</v>
+        <v>0.9587931451197916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030327797982162</v>
+        <v>1.033381803874517</v>
       </c>
       <c r="J4">
-        <v>1.034943526352196</v>
+        <v>0.9988574494330855</v>
       </c>
       <c r="K4">
-        <v>1.035535549548722</v>
+        <v>1.009934070597725</v>
       </c>
       <c r="L4">
-        <v>1.032481525277856</v>
+        <v>0.9972595606303493</v>
       </c>
       <c r="M4">
-        <v>1.032484215561182</v>
+        <v>0.9694157297284358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030878422396736</v>
+        <v>0.9814888124505486</v>
       </c>
       <c r="D5">
-        <v>1.033414151611036</v>
+        <v>1.001787409224012</v>
       </c>
       <c r="E5">
-        <v>1.030409011911067</v>
+        <v>0.989187895188391</v>
       </c>
       <c r="F5">
-        <v>1.030653514811744</v>
+        <v>0.9621837794940825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030431875041359</v>
+        <v>1.034083489690613</v>
       </c>
       <c r="J5">
-        <v>1.035337114287145</v>
+        <v>1.000909546653731</v>
       </c>
       <c r="K5">
-        <v>1.035852753030572</v>
+        <v>1.011640249597601</v>
       </c>
       <c r="L5">
-        <v>1.032855110586847</v>
+        <v>0.999190662702235</v>
       </c>
       <c r="M5">
-        <v>1.033099001739449</v>
+        <v>0.9725244193752492</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030961105517148</v>
+        <v>0.9819202399896668</v>
       </c>
       <c r="D6">
-        <v>1.033476230764102</v>
+        <v>1.002112787853409</v>
       </c>
       <c r="E6">
-        <v>1.030480614366127</v>
+        <v>0.9895520501389731</v>
       </c>
       <c r="F6">
-        <v>1.030765697720659</v>
+        <v>0.9627482326675291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030449306821587</v>
+        <v>1.034200104898351</v>
       </c>
       <c r="J6">
-        <v>1.03540313410845</v>
+        <v>1.001251161083584</v>
       </c>
       <c r="K6">
-        <v>1.035905949230033</v>
+        <v>1.011924218997373</v>
       </c>
       <c r="L6">
-        <v>1.032917777247752</v>
+        <v>0.9995121739212038</v>
       </c>
       <c r="M6">
-        <v>1.033202150135097</v>
+        <v>0.9730418691386045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030392197863891</v>
+        <v>0.9789329653306641</v>
       </c>
       <c r="D7">
-        <v>1.033049035208335</v>
+        <v>0.9998599247795421</v>
       </c>
       <c r="E7">
-        <v>1.029987952477596</v>
+        <v>0.9870310942772642</v>
       </c>
       <c r="F7">
-        <v>1.029993882024683</v>
+        <v>0.9588387806965543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030329191564081</v>
+        <v>1.0333912612173</v>
       </c>
       <c r="J7">
-        <v>1.034948789881744</v>
+        <v>0.9988850693393635</v>
       </c>
       <c r="K7">
-        <v>1.035539792311753</v>
+        <v>1.009957038646108</v>
       </c>
       <c r="L7">
-        <v>1.032486521170753</v>
+        <v>0.9972855493631838</v>
       </c>
       <c r="M7">
-        <v>1.032492435537804</v>
+        <v>0.9694575749801859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028005056527365</v>
+        <v>0.965893620237221</v>
       </c>
       <c r="D8">
-        <v>1.031255154672267</v>
+        <v>0.9900307042967296</v>
       </c>
       <c r="E8">
-        <v>1.027920856266567</v>
+        <v>0.9760415373130998</v>
       </c>
       <c r="F8">
-        <v>1.02675697953702</v>
+        <v>0.9417399704533321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029820834150756</v>
+        <v>1.029826037404112</v>
       </c>
       <c r="J8">
-        <v>1.033040119896044</v>
+        <v>0.9885396569938929</v>
       </c>
       <c r="K8">
-        <v>1.033999997460164</v>
+        <v>1.001347431155717</v>
       </c>
       <c r="L8">
-        <v>1.030675142812246</v>
+        <v>0.9875561280256829</v>
       </c>
       <c r="M8">
-        <v>1.029514578218143</v>
+        <v>0.9537715539436113</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023762369543413</v>
+        <v>0.9403945219181382</v>
       </c>
       <c r="D9">
-        <v>1.028061826352144</v>
+        <v>0.9708455376233672</v>
       </c>
       <c r="E9">
-        <v>1.024247507504275</v>
+        <v>0.9546220233246041</v>
       </c>
       <c r="F9">
-        <v>1.021009788581188</v>
+        <v>0.9080857271224531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028900911511854</v>
+        <v>1.022724740947426</v>
       </c>
       <c r="J9">
-        <v>1.029639378597748</v>
+        <v>0.9682431308425442</v>
       </c>
       <c r="K9">
-        <v>1.03125051879773</v>
+        <v>0.9844300258496652</v>
       </c>
       <c r="L9">
-        <v>1.027448906160816</v>
+        <v>0.9684968904378066</v>
       </c>
       <c r="M9">
-        <v>1.024222054496853</v>
+        <v>0.9228696546201369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020908066339006</v>
+        <v>0.9211520154937044</v>
       </c>
       <c r="D10">
-        <v>1.02591019285647</v>
+        <v>0.9564158367982305</v>
       </c>
       <c r="E10">
-        <v>1.021776651489312</v>
+        <v>0.9385250872772356</v>
       </c>
       <c r="F10">
-        <v>1.017146806851837</v>
+        <v>0.8824284292750356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028271021615735</v>
+        <v>1.017285494482969</v>
       </c>
       <c r="J10">
-        <v>1.02734583275971</v>
+        <v>0.9528852544149634</v>
       </c>
       <c r="K10">
-        <v>1.029392232751239</v>
+        <v>0.9716192801549323</v>
       </c>
       <c r="L10">
-        <v>1.025273850195779</v>
+        <v>0.9541006888824078</v>
       </c>
       <c r="M10">
-        <v>1.020661146287537</v>
+        <v>0.899303243890165</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019665658498755</v>
+        <v>0.9121181411334057</v>
       </c>
       <c r="D11">
-        <v>1.024972881107236</v>
+        <v>0.9496596197571934</v>
       </c>
       <c r="E11">
-        <v>1.020701263889504</v>
+        <v>0.9309891651643505</v>
       </c>
       <c r="F11">
-        <v>1.015466083675844</v>
+        <v>0.8702842921992061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027994246508848</v>
+        <v>1.014715322416518</v>
       </c>
       <c r="J11">
-        <v>1.026346168085579</v>
+        <v>0.9456661889313379</v>
       </c>
       <c r="K11">
-        <v>1.028581351257984</v>
+        <v>0.965597704735482</v>
       </c>
       <c r="L11">
-        <v>1.024326024664469</v>
+        <v>0.9473414549506256</v>
       </c>
       <c r="M11">
-        <v>1.019111017244328</v>
+        <v>0.8881510816687683</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019203171090338</v>
+        <v>0.908637492556428</v>
       </c>
       <c r="D12">
-        <v>1.024623853929373</v>
+        <v>0.9470599790725375</v>
       </c>
       <c r="E12">
-        <v>1.020300968517793</v>
+        <v>0.9280894074772158</v>
       </c>
       <c r="F12">
-        <v>1.014840536117971</v>
+        <v>0.8655860776637517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027890827077006</v>
+        <v>1.013722847841481</v>
       </c>
       <c r="J12">
-        <v>1.025973840933575</v>
+        <v>0.9428835059815087</v>
       </c>
       <c r="K12">
-        <v>1.028279198215507</v>
+        <v>0.9632769197740547</v>
       </c>
       <c r="L12">
-        <v>1.023973034662332</v>
+        <v>0.9447373868769623</v>
       </c>
       <c r="M12">
-        <v>1.01853395063955</v>
+        <v>0.8838374764590283</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019302422012985</v>
+        <v>0.9093901416200004</v>
       </c>
       <c r="D13">
-        <v>1.024698761048725</v>
+        <v>0.9476219519501442</v>
       </c>
       <c r="E13">
-        <v>1.020386872015344</v>
+        <v>0.9287162667768334</v>
       </c>
       <c r="F13">
-        <v>1.014974775604908</v>
+        <v>0.8666029615322878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02791303875128</v>
+        <v>1.013937553468627</v>
       </c>
       <c r="J13">
-        <v>1.026053752338059</v>
+        <v>0.9434852836560662</v>
       </c>
       <c r="K13">
-        <v>1.028344054623748</v>
+        <v>0.9637787890865972</v>
       </c>
       <c r="L13">
-        <v>1.024048794452074</v>
+        <v>0.9453004724133887</v>
       </c>
       <c r="M13">
-        <v>1.018657791988022</v>
+        <v>0.8847710677046289</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019627449751082</v>
+        <v>0.9118331150988461</v>
       </c>
       <c r="D14">
-        <v>1.024944048235637</v>
+        <v>0.9494466640963614</v>
       </c>
       <c r="E14">
-        <v>1.020668192797182</v>
+        <v>0.9307516283895244</v>
       </c>
       <c r="F14">
-        <v>1.015414401533084</v>
+        <v>0.8698999786554474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027985710372296</v>
+        <v>1.014634092797655</v>
       </c>
       <c r="J14">
-        <v>1.026315412093499</v>
+        <v>0.9454383433753337</v>
       </c>
       <c r="K14">
-        <v>1.028556394799374</v>
+        <v>0.965407671204692</v>
       </c>
       <c r="L14">
-        <v>1.024296865408213</v>
+        <v>0.9471282054913069</v>
       </c>
       <c r="M14">
-        <v>1.019063343093954</v>
+        <v>0.8877982087673236</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019827576443929</v>
+        <v>0.9133210549124281</v>
       </c>
       <c r="D15">
-        <v>1.025095062148494</v>
+        <v>0.9505585142134003</v>
       </c>
       <c r="E15">
-        <v>1.0208414106628</v>
+        <v>0.9319918117313678</v>
       </c>
       <c r="F15">
-        <v>1.015685102260009</v>
+        <v>0.8719054308277822</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02803040432104</v>
+        <v>1.015058053382396</v>
       </c>
       <c r="J15">
-        <v>1.026476495118641</v>
+        <v>0.9466277299184571</v>
       </c>
       <c r="K15">
-        <v>1.028687097385053</v>
+        <v>0.9663996878705807</v>
       </c>
       <c r="L15">
-        <v>1.024449586817804</v>
+        <v>0.948241454726656</v>
       </c>
       <c r="M15">
-        <v>1.019313045653444</v>
+        <v>0.8896396324230904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020990381962374</v>
+        <v>0.9217352261920625</v>
       </c>
       <c r="D16">
-        <v>1.025972278576817</v>
+        <v>0.9568524322894457</v>
       </c>
       <c r="E16">
-        <v>1.021847903733155</v>
+        <v>0.9390120681823786</v>
       </c>
       <c r="F16">
-        <v>1.017258177874437</v>
+        <v>0.8832100905780373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028289304745706</v>
+        <v>1.017451104068032</v>
       </c>
       <c r="J16">
-        <v>1.027412037294556</v>
+        <v>0.9533511293640911</v>
       </c>
       <c r="K16">
-        <v>1.029445915352658</v>
+        <v>0.9720079019878709</v>
       </c>
       <c r="L16">
-        <v>1.025336625705897</v>
+        <v>0.9545370627113385</v>
       </c>
       <c r="M16">
-        <v>1.020763846161115</v>
+        <v>0.9000211407809021</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021718025145026</v>
+        <v>0.9268131071700416</v>
       </c>
       <c r="D17">
-        <v>1.026521008864444</v>
+        <v>0.9606558450044218</v>
       </c>
       <c r="E17">
-        <v>1.022477763685838</v>
+        <v>0.9432544935864048</v>
       </c>
       <c r="F17">
-        <v>1.018242745309833</v>
+        <v>0.8900045589068329</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028450622256203</v>
+        <v>1.018891222539894</v>
       </c>
       <c r="J17">
-        <v>1.027997109307553</v>
+        <v>0.95740641845917</v>
       </c>
       <c r="K17">
-        <v>1.029920219937332</v>
+        <v>0.9753907754007716</v>
       </c>
       <c r="L17">
-        <v>1.025891416660287</v>
+        <v>0.9583364322289122</v>
       </c>
       <c r="M17">
-        <v>1.021671660950311</v>
+        <v>0.9062616430064664</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022141824266523</v>
+        <v>0.9297088110035876</v>
       </c>
       <c r="D18">
-        <v>1.026840531156086</v>
+        <v>0.9628263885911837</v>
       </c>
       <c r="E18">
-        <v>1.022844622188338</v>
+        <v>0.945675676506588</v>
       </c>
       <c r="F18">
-        <v>1.018816255548458</v>
+        <v>0.8938704321068751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028544327845645</v>
+        <v>1.01971092001046</v>
       </c>
       <c r="J18">
-        <v>1.028337742135138</v>
+        <v>0.9597181559498561</v>
       </c>
       <c r="K18">
-        <v>1.0301962738641</v>
+        <v>0.9773191965425844</v>
       </c>
       <c r="L18">
-        <v>1.026214438288225</v>
+        <v>0.960502981790323</v>
       </c>
       <c r="M18">
-        <v>1.02220038259124</v>
+        <v>0.9098124983094721</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022286224039145</v>
+        <v>0.9306854638083023</v>
       </c>
       <c r="D19">
-        <v>1.026949388546213</v>
+        <v>0.9635587175278932</v>
       </c>
       <c r="E19">
-        <v>1.022969622582725</v>
+        <v>0.9464925932627917</v>
       </c>
       <c r="F19">
-        <v>1.019011678282565</v>
+        <v>0.8951729256373169</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028576213414405</v>
+        <v>1.01998711597682</v>
       </c>
       <c r="J19">
-        <v>1.028453783025156</v>
+        <v>0.9604977083191906</v>
       </c>
       <c r="K19">
-        <v>1.030290299944441</v>
+        <v>0.9779694814350404</v>
       </c>
       <c r="L19">
-        <v>1.026324482849074</v>
+        <v>0.961233688549602</v>
       </c>
       <c r="M19">
-        <v>1.02238053006396</v>
+        <v>0.91100887337186</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021640020548739</v>
+        <v>0.9262752641754104</v>
       </c>
       <c r="D20">
-        <v>1.02646219158951</v>
+        <v>0.9602528190288633</v>
       </c>
       <c r="E20">
-        <v>1.022410240473024</v>
+        <v>0.9428049388015296</v>
       </c>
       <c r="F20">
-        <v>1.018137190652185</v>
+        <v>0.8892858339797736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028433354620343</v>
+        <v>1.018738846078618</v>
       </c>
       <c r="J20">
-        <v>1.027934401931179</v>
+        <v>0.9569769726330072</v>
       </c>
       <c r="K20">
-        <v>1.029869393735215</v>
+        <v>0.9750325353789792</v>
       </c>
       <c r="L20">
-        <v>1.025831952842935</v>
+        <v>0.9579340134301874</v>
       </c>
       <c r="M20">
-        <v>1.021574343177671</v>
+        <v>0.9056014959733958</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019531765072958</v>
+        <v>0.9111173592746755</v>
       </c>
       <c r="D21">
-        <v>1.024871841396066</v>
+        <v>0.9489119489880667</v>
       </c>
       <c r="E21">
-        <v>1.020585374454092</v>
+        <v>0.930155189432852</v>
       </c>
       <c r="F21">
-        <v>1.015284977594884</v>
+        <v>0.8689345676157185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027964327369926</v>
+        <v>1.014430074978738</v>
       </c>
       <c r="J21">
-        <v>1.026238387815021</v>
+        <v>0.944866158970904</v>
       </c>
       <c r="K21">
-        <v>1.02849389244507</v>
+        <v>0.9649304494849541</v>
       </c>
       <c r="L21">
-        <v>1.024223840420023</v>
+        <v>0.9465926986316183</v>
       </c>
       <c r="M21">
-        <v>1.018943954073924</v>
+        <v>0.8869117933238572</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01820041029841</v>
+        <v>0.9008489386570909</v>
       </c>
       <c r="D22">
-        <v>1.023866893540325</v>
+        <v>0.9412502210008831</v>
       </c>
       <c r="E22">
-        <v>1.019433087404771</v>
+        <v>0.9216084221407763</v>
       </c>
       <c r="F22">
-        <v>1.013484410090491</v>
+        <v>0.8550309129216843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027665881804098</v>
+        <v>1.011498249767168</v>
       </c>
       <c r="J22">
-        <v>1.02516619700473</v>
+        <v>0.9366545123236092</v>
       </c>
       <c r="K22">
-        <v>1.02762352183618</v>
+        <v>0.9580828368198128</v>
       </c>
       <c r="L22">
-        <v>1.023207390995284</v>
+        <v>0.9389110367046445</v>
       </c>
       <c r="M22">
-        <v>1.017282698574559</v>
+        <v>0.8741486760270409</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018906747236364</v>
+        <v>0.9063705801587915</v>
       </c>
       <c r="D23">
-        <v>1.024400119274367</v>
+        <v>0.9453679381809678</v>
       </c>
       <c r="E23">
-        <v>1.020044411050158</v>
+        <v>0.9262019632729155</v>
       </c>
       <c r="F23">
-        <v>1.014439629552488</v>
+        <v>0.8625200687846485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027824432463408</v>
+        <v>1.013075872846543</v>
       </c>
       <c r="J23">
-        <v>1.025735147264079</v>
+        <v>0.9410708260701225</v>
       </c>
       <c r="K23">
-        <v>1.02808545328471</v>
+        <v>0.9617652559929994</v>
       </c>
       <c r="L23">
-        <v>1.023746746136102</v>
+        <v>0.9430414746504544</v>
       </c>
       <c r="M23">
-        <v>1.018164079893409</v>
+        <v>0.8810227751036392</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021675269391704</v>
+        <v>0.9265184952393535</v>
       </c>
       <c r="D24">
-        <v>1.026488770260924</v>
+        <v>0.960435076219321</v>
       </c>
       <c r="E24">
-        <v>1.022440752937626</v>
+        <v>0.9430082370048821</v>
       </c>
       <c r="F24">
-        <v>1.018184888639803</v>
+        <v>0.8896108929903613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028441158320963</v>
+        <v>1.018807760774641</v>
       </c>
       <c r="J24">
-        <v>1.027962738640553</v>
+        <v>0.9571711853557116</v>
       </c>
       <c r="K24">
-        <v>1.029892361761262</v>
+        <v>0.9751945459924536</v>
       </c>
       <c r="L24">
-        <v>1.025858823769387</v>
+        <v>0.9581160012698279</v>
       </c>
       <c r="M24">
-        <v>1.021618319333701</v>
+        <v>0.9059000613448233</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024863651307452</v>
+        <v>0.9473348149777623</v>
       </c>
       <c r="D25">
-        <v>1.028891310207258</v>
+        <v>0.9760611442162102</v>
       </c>
       <c r="E25">
-        <v>1.025200936565805</v>
+        <v>0.9604422427884554</v>
       </c>
       <c r="F25">
-        <v>1.022500954845393</v>
+        <v>0.9172797111431455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029141632367965</v>
+        <v>1.024671570042821</v>
       </c>
       <c r="J25">
-        <v>1.030523111253799</v>
+        <v>0.973774542649574</v>
       </c>
       <c r="K25">
-        <v>1.031965711012572</v>
+        <v>0.9890428068154095</v>
       </c>
       <c r="L25">
-        <v>1.028287152545051</v>
+        <v>0.9736873380972496</v>
       </c>
       <c r="M25">
-        <v>1.025595874297711</v>
+        <v>0.9313139626234925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9623819948113495</v>
+        <v>1.014146046136047</v>
       </c>
       <c r="D2">
-        <v>0.9873852900689263</v>
+        <v>1.029278502981504</v>
       </c>
       <c r="E2">
-        <v>0.9730860281455349</v>
+        <v>1.01834658533158</v>
       </c>
       <c r="F2">
-        <v>0.9371240328082158</v>
+        <v>1.022750318883227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02885726434517</v>
+        <v>1.047154513492745</v>
       </c>
       <c r="J2">
-        <v>0.9857491746757122</v>
+        <v>1.035911729559458</v>
       </c>
       <c r="K2">
-        <v>0.999023211079009</v>
+        <v>1.040344471830905</v>
       </c>
       <c r="L2">
-        <v>0.9849335031637394</v>
+        <v>1.029556105910753</v>
       </c>
       <c r="M2">
-        <v>0.9495348647804149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.033901549350493</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035403174467886</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03959731567516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9725848852604234</v>
+        <v>1.018753477291197</v>
       </c>
       <c r="D3">
-        <v>0.9950735953190853</v>
+        <v>1.032377692946335</v>
       </c>
       <c r="E3">
-        <v>0.9816779861521571</v>
+        <v>1.022079610651575</v>
       </c>
       <c r="F3">
-        <v>0.9505218808088166</v>
+        <v>1.026143130306248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031662240426237</v>
+        <v>1.048456931391646</v>
       </c>
       <c r="J3">
-        <v>0.9938518774722319</v>
+        <v>1.03874563891273</v>
       </c>
       <c r="K3">
-        <v>1.005769900927618</v>
+        <v>1.042612400712279</v>
       </c>
       <c r="L3">
-        <v>0.9925507955873923</v>
+        <v>1.032437563167621</v>
       </c>
       <c r="M3">
-        <v>0.9618295944696558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.036452085110903</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037421764048425</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041198275873776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9788981061970842</v>
+        <v>1.02167088589866</v>
       </c>
       <c r="D4">
-        <v>0.999833637310148</v>
+        <v>1.034343788832768</v>
       </c>
       <c r="E4">
-        <v>0.9870016838107604</v>
+        <v>1.024448445853475</v>
       </c>
       <c r="F4">
-        <v>0.9587931451197916</v>
+        <v>1.028300784224342</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033381803874517</v>
+        <v>1.049272386053651</v>
       </c>
       <c r="J4">
-        <v>0.9988574494330855</v>
+        <v>1.040536036135236</v>
       </c>
       <c r="K4">
-        <v>1.009934070597725</v>
+        <v>1.04404465777325</v>
       </c>
       <c r="L4">
-        <v>0.9972595606303493</v>
+        <v>1.034260489338663</v>
       </c>
       <c r="M4">
-        <v>0.9694157297284358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.038069233223568</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038701632702219</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042211894903898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9814888124505486</v>
+        <v>1.022888140603259</v>
       </c>
       <c r="D5">
-        <v>1.001787409224012</v>
+        <v>1.035167510544011</v>
       </c>
       <c r="E5">
-        <v>0.989187895188391</v>
+        <v>1.025438822693614</v>
       </c>
       <c r="F5">
-        <v>0.9621837794940825</v>
+        <v>1.029201528159851</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034083489690613</v>
+        <v>1.049612604734525</v>
       </c>
       <c r="J5">
-        <v>1.000909546653731</v>
+        <v>1.041284065875235</v>
       </c>
       <c r="K5">
-        <v>1.011640249597601</v>
+        <v>1.044644804715805</v>
       </c>
       <c r="L5">
-        <v>0.999190662702235</v>
+        <v>1.035022466273897</v>
       </c>
       <c r="M5">
-        <v>0.9725244193752492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.038743746812651</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039235466120568</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042643392786796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819202399896668</v>
+        <v>1.023098417470033</v>
       </c>
       <c r="D6">
-        <v>1.002112787853409</v>
+        <v>1.035312949030886</v>
       </c>
       <c r="E6">
-        <v>0.9895520501389731</v>
+        <v>1.025610977342254</v>
       </c>
       <c r="F6">
-        <v>0.9627482326675291</v>
+        <v>1.02935517772606</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034200104898351</v>
+        <v>1.049673968331565</v>
       </c>
       <c r="J6">
-        <v>1.001251161083584</v>
+        <v>1.041415670775729</v>
       </c>
       <c r="K6">
-        <v>1.011924218997373</v>
+        <v>1.044752674520739</v>
       </c>
       <c r="L6">
-        <v>0.9995121739212038</v>
+        <v>1.035156266607881</v>
       </c>
       <c r="M6">
-        <v>0.9730418691386045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.03885943822679</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039327028273136</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042728378169035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9789329653306641</v>
+        <v>1.021705449810405</v>
       </c>
       <c r="D7">
-        <v>0.9998599247795421</v>
+        <v>1.034375489718769</v>
       </c>
       <c r="E7">
-        <v>0.9870310942772642</v>
+        <v>1.024479292692142</v>
       </c>
       <c r="F7">
-        <v>0.9588387806965543</v>
+        <v>1.028320738115517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0333912612173</v>
+        <v>1.04928942134795</v>
       </c>
       <c r="J7">
-        <v>0.9988850693393635</v>
+        <v>1.040563871781043</v>
       </c>
       <c r="K7">
-        <v>1.009957038646108</v>
+        <v>1.044073138386275</v>
       </c>
       <c r="L7">
-        <v>0.9972855493631838</v>
+        <v>1.034288080104924</v>
       </c>
       <c r="M7">
-        <v>0.9694575749801859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.038086071472016</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038714959080127</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042252077971217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.965893620237221</v>
+        <v>1.015739967841115</v>
       </c>
       <c r="D8">
-        <v>0.9900307042967296</v>
+        <v>1.030360303789662</v>
       </c>
       <c r="E8">
-        <v>0.9760415373130998</v>
+        <v>1.019640554639687</v>
       </c>
       <c r="F8">
-        <v>0.9417399704533321</v>
+        <v>1.023915002253478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029826037404112</v>
+        <v>1.047616292834804</v>
       </c>
       <c r="J8">
-        <v>0.9885396569938929</v>
+        <v>1.036901234922944</v>
       </c>
       <c r="K8">
-        <v>1.001347431155717</v>
+        <v>1.041144148932396</v>
       </c>
       <c r="L8">
-        <v>0.9875561280256829</v>
+        <v>1.030560895264686</v>
       </c>
       <c r="M8">
-        <v>0.9537715539436113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.034780487920982</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036098800038483</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040185617188371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9403945219181382</v>
+        <v>1.004682820115186</v>
       </c>
       <c r="D9">
-        <v>0.9708455376233672</v>
+        <v>1.022936562657042</v>
       </c>
       <c r="E9">
-        <v>0.9546220233246041</v>
+        <v>1.010709955034965</v>
       </c>
       <c r="F9">
-        <v>0.9080857271224531</v>
+        <v>1.015835156736701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022724740947426</v>
+        <v>1.044431139425078</v>
       </c>
       <c r="J9">
-        <v>0.9682431308425442</v>
+        <v>1.03007129277781</v>
       </c>
       <c r="K9">
-        <v>0.9844300258496652</v>
+        <v>1.035668156712996</v>
       </c>
       <c r="L9">
-        <v>0.9684968904378066</v>
+        <v>1.023631628051052</v>
       </c>
       <c r="M9">
-        <v>0.9228696546201369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.028676439638888</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031267808802249</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036310548645009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9211520154937044</v>
+        <v>0.9971026253807306</v>
       </c>
       <c r="D10">
-        <v>0.9564158367982305</v>
+        <v>1.017892494274628</v>
       </c>
       <c r="E10">
-        <v>0.9385250872772356</v>
+        <v>1.004640611535542</v>
       </c>
       <c r="F10">
-        <v>0.8824284292750356</v>
+        <v>1.010575388632725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017285494482969</v>
+        <v>1.042242969398534</v>
       </c>
       <c r="J10">
-        <v>0.9528852544149634</v>
+        <v>1.025431671633857</v>
       </c>
       <c r="K10">
-        <v>0.9716192801549323</v>
+        <v>1.031946038161343</v>
       </c>
       <c r="L10">
-        <v>0.9541006888824078</v>
+        <v>1.018926580780912</v>
       </c>
       <c r="M10">
-        <v>0.899303243890165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.024756290799684</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.028217313397291</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033695598678008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9121181411334057</v>
+        <v>0.9951166552710711</v>
       </c>
       <c r="D11">
-        <v>0.9496596197571934</v>
+        <v>1.016734143538054</v>
       </c>
       <c r="E11">
-        <v>0.9309891651643505</v>
+        <v>1.003231991627294</v>
       </c>
       <c r="F11">
-        <v>0.8702842921992061</v>
+        <v>1.011001428075772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014715322416518</v>
+        <v>1.041982225647915</v>
       </c>
       <c r="J11">
-        <v>0.9456661889313379</v>
+        <v>1.024694007722712</v>
       </c>
       <c r="K11">
-        <v>0.965597704735482</v>
+        <v>1.03134723101169</v>
       </c>
       <c r="L11">
-        <v>0.9473414549506256</v>
+        <v>1.018093213625008</v>
       </c>
       <c r="M11">
-        <v>0.8881510816687683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.025718813612751</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029419867285039</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033305133646905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.908637492556428</v>
+        <v>0.9948547146380982</v>
       </c>
       <c r="D12">
-        <v>0.9470599790725375</v>
+        <v>1.016675498444751</v>
       </c>
       <c r="E12">
-        <v>0.9280894074772158</v>
+        <v>1.003156165530733</v>
       </c>
       <c r="F12">
-        <v>0.8655860776637517</v>
+        <v>1.012083671549817</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013722847841481</v>
+        <v>1.042138205795249</v>
       </c>
       <c r="J12">
-        <v>0.9428835059815087</v>
+        <v>1.024878439848384</v>
       </c>
       <c r="K12">
-        <v>0.9632769197740547</v>
+        <v>1.031490046821678</v>
       </c>
       <c r="L12">
-        <v>0.9447373868769623</v>
+        <v>1.018223147168343</v>
       </c>
       <c r="M12">
-        <v>0.8838374764590283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.026982972232453</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030748933660044</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033406109441857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9093901416200004</v>
+        <v>0.9959176678560075</v>
       </c>
       <c r="D13">
-        <v>0.9476219519501442</v>
+        <v>1.017477712312425</v>
       </c>
       <c r="E13">
-        <v>0.9287162667768334</v>
+        <v>1.004114215507138</v>
       </c>
       <c r="F13">
-        <v>0.8666029615322878</v>
+        <v>1.013769931818808</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013937553468627</v>
+        <v>1.042640785468809</v>
       </c>
       <c r="J13">
-        <v>0.9434852836560662</v>
+        <v>1.025802552752516</v>
       </c>
       <c r="K13">
-        <v>0.9637787890865972</v>
+        <v>1.032234619849492</v>
       </c>
       <c r="L13">
-        <v>0.9453004724133887</v>
+        <v>1.019119245293232</v>
       </c>
       <c r="M13">
-        <v>0.8847710677046289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.028594827900524</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032301892043258</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033930051999866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9118331150988461</v>
+        <v>0.9972462587628591</v>
       </c>
       <c r="D14">
-        <v>0.9494466640963614</v>
+        <v>1.01841948827681</v>
       </c>
       <c r="E14">
-        <v>0.9307516283895244</v>
+        <v>1.005239644473468</v>
       </c>
       <c r="F14">
-        <v>0.8698999786554474</v>
+        <v>1.015194386084526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014634092797655</v>
+        <v>1.043142850000734</v>
       </c>
       <c r="J14">
-        <v>0.9454383433753337</v>
+        <v>1.026769865505992</v>
       </c>
       <c r="K14">
-        <v>0.965407671204692</v>
+        <v>1.033018728445299</v>
       </c>
       <c r="L14">
-        <v>0.9471282054913069</v>
+        <v>1.020080260771963</v>
       </c>
       <c r="M14">
-        <v>0.8877982087673236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.02985193745093</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033469820788907</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034485870545873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9133210549124281</v>
+        <v>0.9978769611382213</v>
       </c>
       <c r="D15">
-        <v>0.9505585142134003</v>
+        <v>1.018852642098154</v>
       </c>
       <c r="E15">
-        <v>0.9319918117313678</v>
+        <v>1.005756460117284</v>
       </c>
       <c r="F15">
-        <v>0.8719054308277822</v>
+        <v>1.015724040530592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015058053382396</v>
+        <v>1.043351235500082</v>
       </c>
       <c r="J15">
-        <v>0.9466277299184571</v>
+        <v>1.027186703227743</v>
       </c>
       <c r="K15">
-        <v>0.9663996878705807</v>
+        <v>1.033357569398941</v>
       </c>
       <c r="L15">
-        <v>0.948241454726656</v>
+        <v>1.020499299555982</v>
       </c>
       <c r="M15">
-        <v>0.8896396324230904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.030285078772117</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033849874783479</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034731318700108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9217352261920625</v>
+        <v>1.000855476371428</v>
       </c>
       <c r="D16">
-        <v>0.9568524322894457</v>
+        <v>1.020813363163398</v>
       </c>
       <c r="E16">
-        <v>0.9390120681823786</v>
+        <v>1.008112100360504</v>
       </c>
       <c r="F16">
-        <v>0.8832100905780373</v>
+        <v>1.017656576386345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017451104068032</v>
+        <v>1.044181101041403</v>
       </c>
       <c r="J16">
-        <v>0.9533511293640911</v>
+        <v>1.028958517146482</v>
       </c>
       <c r="K16">
-        <v>0.9720079019878709</v>
+        <v>1.03478112142597</v>
       </c>
       <c r="L16">
-        <v>0.9545370627113385</v>
+        <v>1.02230016482944</v>
       </c>
       <c r="M16">
-        <v>0.9000211407809021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.031678425856903</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034912286062888</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035740986052782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9268131071700416</v>
+        <v>1.002457524944524</v>
       </c>
       <c r="D17">
-        <v>0.9606558450044218</v>
+        <v>1.021834888448144</v>
       </c>
       <c r="E17">
-        <v>0.9432544935864048</v>
+        <v>1.009342705620631</v>
       </c>
       <c r="F17">
-        <v>0.8900045589068329</v>
+        <v>1.018401080947869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018891222539894</v>
+        <v>1.044558401842906</v>
       </c>
       <c r="J17">
-        <v>0.95740641845917</v>
+        <v>1.029821590569643</v>
       </c>
       <c r="K17">
-        <v>0.9753907754007716</v>
+        <v>1.035470606033385</v>
       </c>
       <c r="L17">
-        <v>0.9583364322289122</v>
+        <v>1.023188882642145</v>
       </c>
       <c r="M17">
-        <v>0.9062616430064664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.032093985755047</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035111133043722</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036231063947108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9297088110035876</v>
+        <v>1.002962749434181</v>
       </c>
       <c r="D18">
-        <v>0.9628263885911837</v>
+        <v>1.022089161442938</v>
       </c>
       <c r="E18">
-        <v>0.945675676506588</v>
+        <v>1.009658917955752</v>
       </c>
       <c r="F18">
-        <v>0.8938704321068751</v>
+        <v>1.018016477879059</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01971092001046</v>
+        <v>1.04454675972983</v>
       </c>
       <c r="J18">
-        <v>0.9597181559498561</v>
+        <v>1.02991429304306</v>
       </c>
       <c r="K18">
-        <v>0.9773191965425844</v>
+        <v>1.035537197501299</v>
       </c>
       <c r="L18">
-        <v>0.960502981790323</v>
+        <v>1.023312983015334</v>
       </c>
       <c r="M18">
-        <v>0.9098124983094721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.0315313049224</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034427319965496</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036266510124535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9306854638083023</v>
+        <v>1.002466611435567</v>
       </c>
       <c r="D19">
-        <v>0.9635587175278932</v>
+        <v>1.021657621957075</v>
       </c>
       <c r="E19">
-        <v>0.9464925932627917</v>
+        <v>1.009144499889373</v>
       </c>
       <c r="F19">
-        <v>0.8951729256373169</v>
+        <v>1.016511405420053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01998711597682</v>
+        <v>1.044191421889455</v>
       </c>
       <c r="J19">
-        <v>0.9604977083191906</v>
+        <v>1.02930267160592</v>
       </c>
       <c r="K19">
-        <v>0.9779694814350404</v>
+        <v>1.035050105766597</v>
       </c>
       <c r="L19">
-        <v>0.961233688549602</v>
+        <v>1.022743525482924</v>
       </c>
       <c r="M19">
-        <v>0.91100887337186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.029988040883402</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032879201262127</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035928518866335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9262752641754104</v>
+        <v>0.9991279878587308</v>
       </c>
       <c r="D20">
-        <v>0.9602528190288633</v>
+        <v>1.019260755012816</v>
       </c>
       <c r="E20">
-        <v>0.9428049388015296</v>
+        <v>1.006269320278325</v>
       </c>
       <c r="F20">
-        <v>0.8892858339797736</v>
+        <v>1.011973939326281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018738846078618</v>
+        <v>1.042852092877378</v>
       </c>
       <c r="J20">
-        <v>0.9569769726330072</v>
+        <v>1.026692565545701</v>
       </c>
       <c r="K20">
-        <v>0.9750325353789792</v>
+        <v>1.032973176097603</v>
       </c>
       <c r="L20">
-        <v>0.9579340134301874</v>
+        <v>1.020202819808366</v>
       </c>
       <c r="M20">
-        <v>0.9056014959733958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.025809459138101</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029040114839609</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034463987553269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9111173592746755</v>
+        <v>0.993139981452456</v>
       </c>
       <c r="D21">
-        <v>0.9489119489880667</v>
+        <v>1.015253513148625</v>
       </c>
       <c r="E21">
-        <v>0.930155189432852</v>
+        <v>1.001453579936065</v>
       </c>
       <c r="F21">
-        <v>0.8689345676157185</v>
+        <v>1.007485723734599</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014430074978738</v>
+        <v>1.041045094913304</v>
       </c>
       <c r="J21">
-        <v>0.944866158970904</v>
+        <v>1.022927343809879</v>
       </c>
       <c r="K21">
-        <v>0.9649304494849541</v>
+        <v>1.029951552986957</v>
       </c>
       <c r="L21">
-        <v>0.9465926986316183</v>
+        <v>1.016407466030399</v>
       </c>
       <c r="M21">
-        <v>0.8869117933238572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.022326651177626</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026242293274399</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032330829719406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9008489386570909</v>
+        <v>0.9893438925143557</v>
       </c>
       <c r="D22">
-        <v>0.9412502210008831</v>
+        <v>1.012719784970036</v>
       </c>
       <c r="E22">
-        <v>0.9216084221407763</v>
+        <v>0.9984150021172599</v>
       </c>
       <c r="F22">
-        <v>0.8550309129216843</v>
+        <v>1.00477263992408</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011498249767168</v>
+        <v>1.039901302367552</v>
       </c>
       <c r="J22">
-        <v>0.9366545123236092</v>
+        <v>1.020559024053651</v>
       </c>
       <c r="K22">
-        <v>0.9580828368198128</v>
+        <v>1.028043402819204</v>
       </c>
       <c r="L22">
-        <v>0.9389110367046445</v>
+        <v>1.014017923652732</v>
       </c>
       <c r="M22">
-        <v>0.8741486760270409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.02025013910583</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024598837844779</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030968129850754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9063705801587915</v>
+        <v>0.9913466563859297</v>
       </c>
       <c r="D23">
-        <v>0.9453679381809678</v>
+        <v>1.014048032516746</v>
       </c>
       <c r="E23">
-        <v>0.9262019632729155</v>
+        <v>1.000014057701218</v>
       </c>
       <c r="F23">
-        <v>0.8625200687846485</v>
+        <v>1.006208013415121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013075872846543</v>
+        <v>1.040498493382666</v>
       </c>
       <c r="J23">
-        <v>0.9410708260701225</v>
+        <v>1.021802501564992</v>
       </c>
       <c r="K23">
-        <v>0.9617652559929994</v>
+        <v>1.029039750322173</v>
       </c>
       <c r="L23">
-        <v>0.9430414746504544</v>
+        <v>1.015272431072328</v>
       </c>
       <c r="M23">
-        <v>0.8810227751036392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.021347497755943</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025467342815677</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031662920674647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9265184952393535</v>
+        <v>0.9990636421571398</v>
       </c>
       <c r="D24">
-        <v>0.960435076219321</v>
+        <v>1.019191766606316</v>
       </c>
       <c r="E24">
-        <v>0.9430082370048821</v>
+        <v>1.006196915692246</v>
       </c>
       <c r="F24">
-        <v>0.8896108929903613</v>
+        <v>1.011757420003706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018807760774641</v>
+        <v>1.04279286645014</v>
       </c>
       <c r="J24">
-        <v>0.9571711853557116</v>
+        <v>1.026597784113369</v>
       </c>
       <c r="K24">
-        <v>0.9751945459924536</v>
+        <v>1.03289003212739</v>
       </c>
       <c r="L24">
-        <v>0.9581160012698279</v>
+        <v>1.020116073535711</v>
       </c>
       <c r="M24">
-        <v>0.9059000613448233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.025581160949132</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028818067019952</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034377743611999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9473348149777623</v>
+        <v>1.007636835877591</v>
       </c>
       <c r="D25">
-        <v>0.9760611442162102</v>
+        <v>1.024929096366209</v>
       </c>
       <c r="E25">
-        <v>0.9604422427884554</v>
+        <v>1.013095501261326</v>
       </c>
       <c r="F25">
-        <v>0.9172797111431455</v>
+        <v>1.017975364028419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024671570042821</v>
+        <v>1.045302164593585</v>
       </c>
       <c r="J25">
-        <v>0.973774542649574</v>
+        <v>1.031909895273719</v>
       </c>
       <c r="K25">
-        <v>0.9890428068154095</v>
+        <v>1.037152364573856</v>
       </c>
       <c r="L25">
-        <v>0.9736873380972496</v>
+        <v>1.025493871732902</v>
       </c>
       <c r="M25">
-        <v>0.9313139626234925</v>
+        <v>1.030300900003156</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032553475827788</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037388567010619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014146046136047</v>
+        <v>1.013085694756507</v>
       </c>
       <c r="D2">
-        <v>1.029278502981504</v>
+        <v>1.027906693972029</v>
       </c>
       <c r="E2">
-        <v>1.01834658533158</v>
+        <v>1.017504480070652</v>
       </c>
       <c r="F2">
-        <v>1.022750318883227</v>
+        <v>1.022290982039309</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047154513492745</v>
+        <v>1.046562825621927</v>
       </c>
       <c r="J2">
-        <v>1.035911729559458</v>
+        <v>1.034881937180495</v>
       </c>
       <c r="K2">
-        <v>1.040344471830905</v>
+        <v>1.03899046685833</v>
       </c>
       <c r="L2">
-        <v>1.029556105910753</v>
+        <v>1.028725219348578</v>
       </c>
       <c r="M2">
-        <v>1.033901549350493</v>
+        <v>1.033448263110173</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035403174467886</v>
+        <v>1.035044426149158</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03959731567516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038648683048256</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022215303108187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018753477291197</v>
+        <v>1.017456768225732</v>
       </c>
       <c r="D3">
-        <v>1.032377692946335</v>
+        <v>1.030721843780205</v>
       </c>
       <c r="E3">
-        <v>1.022079610651575</v>
+        <v>1.021020742808559</v>
       </c>
       <c r="F3">
-        <v>1.026143130306248</v>
+        <v>1.025582180624639</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048456931391646</v>
+        <v>1.047710762130564</v>
       </c>
       <c r="J3">
-        <v>1.03874563891273</v>
+        <v>1.037482597929748</v>
       </c>
       <c r="K3">
-        <v>1.042612400712279</v>
+        <v>1.040976162405817</v>
       </c>
       <c r="L3">
-        <v>1.032437563167621</v>
+        <v>1.031391542676015</v>
       </c>
       <c r="M3">
-        <v>1.036452085110903</v>
+        <v>1.035897870666435</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037421764048425</v>
+        <v>1.036983138455848</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041198275873776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040049799816212</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022664647815459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02167088589866</v>
+        <v>1.020226951800471</v>
       </c>
       <c r="D4">
-        <v>1.034343788832768</v>
+        <v>1.032509854465355</v>
       </c>
       <c r="E4">
-        <v>1.024448445853475</v>
+        <v>1.023254519897159</v>
       </c>
       <c r="F4">
-        <v>1.028300784224342</v>
+        <v>1.027676695678327</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049272386053651</v>
+        <v>1.048429465791764</v>
       </c>
       <c r="J4">
-        <v>1.040536036135236</v>
+        <v>1.039127030047328</v>
       </c>
       <c r="K4">
-        <v>1.04404465777325</v>
+        <v>1.042231129757266</v>
       </c>
       <c r="L4">
-        <v>1.034260489338663</v>
+        <v>1.033080156475682</v>
       </c>
       <c r="M4">
-        <v>1.038069233223568</v>
+        <v>1.037452179758991</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038701632702219</v>
+        <v>1.03821327486818</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042211894903898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040938141334834</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022945991206918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022888140603259</v>
+        <v>1.021383181955284</v>
       </c>
       <c r="D5">
-        <v>1.035167510544011</v>
+        <v>1.03325958248415</v>
       </c>
       <c r="E5">
-        <v>1.025438822693614</v>
+        <v>1.02418885836841</v>
       </c>
       <c r="F5">
-        <v>1.029201528159851</v>
+        <v>1.028551302664532</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049612604734525</v>
+        <v>1.048729425188164</v>
       </c>
       <c r="J5">
-        <v>1.041284065875235</v>
+        <v>1.039814413162296</v>
       </c>
       <c r="K5">
-        <v>1.044644804715805</v>
+        <v>1.042757539537334</v>
       </c>
       <c r="L5">
-        <v>1.035022466273897</v>
+        <v>1.033786346058296</v>
       </c>
       <c r="M5">
-        <v>1.038743746812651</v>
+        <v>1.038100653265305</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039235466120568</v>
+        <v>1.038726499620415</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042643392786796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041318215005232</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02306411322658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023098417470033</v>
+        <v>1.021582763093124</v>
       </c>
       <c r="D6">
-        <v>1.035312949030886</v>
+        <v>1.033392140223843</v>
       </c>
       <c r="E6">
-        <v>1.025610977342254</v>
+        <v>1.024351123240904</v>
       </c>
       <c r="F6">
-        <v>1.02935517772606</v>
+        <v>1.028700371339447</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049673968331565</v>
+        <v>1.048783675967328</v>
       </c>
       <c r="J6">
-        <v>1.041415670775729</v>
+        <v>1.03993538840115</v>
       </c>
       <c r="K6">
-        <v>1.044752674520739</v>
+        <v>1.042852572387122</v>
       </c>
       <c r="L6">
-        <v>1.035156266607881</v>
+        <v>1.033910300811907</v>
       </c>
       <c r="M6">
-        <v>1.03885943822679</v>
+        <v>1.038211780719923</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039327028273136</v>
+        <v>1.038814449761564</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042728378169035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041394996662787</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023086315330366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021705449810405</v>
+        <v>1.020259250724222</v>
       </c>
       <c r="D7">
-        <v>1.034375489718769</v>
+        <v>1.032539098322041</v>
       </c>
       <c r="E7">
-        <v>1.024479292692142</v>
+        <v>1.023283097402448</v>
       </c>
       <c r="F7">
-        <v>1.028320738115517</v>
+        <v>1.027695673740197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04928942134795</v>
+        <v>1.048444868887604</v>
       </c>
       <c r="J7">
-        <v>1.040563871781043</v>
+        <v>1.039152639686024</v>
       </c>
       <c r="K7">
-        <v>1.044073138386275</v>
+        <v>1.042257172391764</v>
       </c>
       <c r="L7">
-        <v>1.034288080104924</v>
+        <v>1.033105498222404</v>
       </c>
       <c r="M7">
-        <v>1.038086071472016</v>
+        <v>1.037468050498952</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038714959080127</v>
+        <v>1.038225835534662</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042252077971217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04097860906807</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022954323590227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015739967841115</v>
+        <v>1.01459653722496</v>
       </c>
       <c r="D8">
-        <v>1.030360303789662</v>
+        <v>1.028889304393078</v>
       </c>
       <c r="E8">
-        <v>1.019640554639687</v>
+        <v>1.018722006009293</v>
       </c>
       <c r="F8">
-        <v>1.023915002253478</v>
+        <v>1.023419908705799</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047616292834804</v>
+        <v>1.046970226451407</v>
       </c>
       <c r="J8">
-        <v>1.036901234922944</v>
+        <v>1.035789634515456</v>
       </c>
       <c r="K8">
-        <v>1.041144148932396</v>
+        <v>1.039691669802276</v>
       </c>
       <c r="L8">
-        <v>1.030560895264686</v>
+        <v>1.029654209759258</v>
       </c>
       <c r="M8">
-        <v>1.034780487920982</v>
+        <v>1.034291718700529</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036098800038483</v>
+        <v>1.035711969484929</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040185617188371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039169630508697</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022377699578646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004682820115186</v>
+        <v>1.004122738234023</v>
       </c>
       <c r="D9">
-        <v>1.022936562657042</v>
+        <v>1.022158556016174</v>
       </c>
       <c r="E9">
-        <v>1.010709955034965</v>
+        <v>1.010325967370781</v>
       </c>
       <c r="F9">
-        <v>1.015835156736701</v>
+        <v>1.015591853534299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044431139425078</v>
+        <v>1.044162808087241</v>
       </c>
       <c r="J9">
-        <v>1.03007129277781</v>
+        <v>1.029530747280229</v>
       </c>
       <c r="K9">
-        <v>1.035668156712996</v>
+        <v>1.034902072361094</v>
       </c>
       <c r="L9">
-        <v>1.023631628051052</v>
+        <v>1.023253705380462</v>
       </c>
       <c r="M9">
-        <v>1.028676439638888</v>
+        <v>1.028436929258375</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031267808802249</v>
+        <v>1.031078249899616</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036310548645009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035779622568545</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021276146143393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9971026253807306</v>
+        <v>0.9969506122682522</v>
       </c>
       <c r="D10">
-        <v>1.017892494274628</v>
+        <v>1.017592750320832</v>
       </c>
       <c r="E10">
-        <v>1.004640611535542</v>
+        <v>1.004627992639871</v>
       </c>
       <c r="F10">
-        <v>1.010575388632725</v>
+        <v>1.010509271338085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042242969398534</v>
+        <v>1.042233774390893</v>
       </c>
       <c r="J10">
-        <v>1.025431671633857</v>
+        <v>1.025285740815586</v>
       </c>
       <c r="K10">
-        <v>1.031946038161343</v>
+        <v>1.031651464884847</v>
       </c>
       <c r="L10">
-        <v>1.018926580780912</v>
+        <v>1.018914187002482</v>
       </c>
       <c r="M10">
-        <v>1.024756290799684</v>
+        <v>1.024691335210603</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.028217313397291</v>
+        <v>1.028165907792073</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033695598678008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033499757322507</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020526070275328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9951166552710711</v>
+        <v>0.9950054377448311</v>
       </c>
       <c r="D11">
-        <v>1.016734143538054</v>
+        <v>1.016494778753894</v>
       </c>
       <c r="E11">
-        <v>1.003231991627294</v>
+        <v>1.003243675783865</v>
       </c>
       <c r="F11">
-        <v>1.011001428075772</v>
+        <v>1.010953408178594</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041982225647915</v>
+        <v>1.04198986169635</v>
       </c>
       <c r="J11">
-        <v>1.024694007722712</v>
+        <v>1.024587482650025</v>
       </c>
       <c r="K11">
-        <v>1.03134723101169</v>
+        <v>1.031112190506938</v>
       </c>
       <c r="L11">
-        <v>1.018093213625008</v>
+        <v>1.018104679288094</v>
       </c>
       <c r="M11">
-        <v>1.025718813612751</v>
+        <v>1.025671673870747</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029419867285039</v>
+        <v>1.029382580288453</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033305133646905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033154606040929</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020485393764831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9948547146380982</v>
+        <v>0.9947046088494713</v>
       </c>
       <c r="D12">
-        <v>1.016675498444751</v>
+        <v>1.016401255242458</v>
       </c>
       <c r="E12">
-        <v>1.003156165530733</v>
+        <v>1.003122327966737</v>
       </c>
       <c r="F12">
-        <v>1.012083671549817</v>
+        <v>1.012019211641171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042138205795249</v>
+        <v>1.04211432972939</v>
       </c>
       <c r="J12">
-        <v>1.024878439848384</v>
+        <v>1.024734782330558</v>
       </c>
       <c r="K12">
-        <v>1.031490046821678</v>
+        <v>1.031220837375397</v>
       </c>
       <c r="L12">
-        <v>1.018223147168343</v>
+        <v>1.018189952583638</v>
       </c>
       <c r="M12">
-        <v>1.026982972232453</v>
+        <v>1.026919709213411</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030748933660044</v>
+        <v>1.030698910568753</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033406109441857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033231421612399</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020573691672318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9959176678560075</v>
+        <v>0.995663760198606</v>
       </c>
       <c r="D13">
-        <v>1.017477712312425</v>
+        <v>1.017091894436611</v>
       </c>
       <c r="E13">
-        <v>1.004114215507138</v>
+        <v>1.003977132408368</v>
       </c>
       <c r="F13">
-        <v>1.013769931818808</v>
+        <v>1.013661370606297</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042640785468809</v>
+        <v>1.042545329952496</v>
       </c>
       <c r="J13">
-        <v>1.025802552752516</v>
+        <v>1.025559481107207</v>
       </c>
       <c r="K13">
-        <v>1.032234619849492</v>
+        <v>1.031855846528567</v>
       </c>
       <c r="L13">
-        <v>1.019119245293232</v>
+        <v>1.018984752169695</v>
       </c>
       <c r="M13">
-        <v>1.028594827900524</v>
+        <v>1.02848826711149</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032301892043258</v>
+        <v>1.032217654111582</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033930051999866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033677646357512</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020775806159597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9972462587628591</v>
+        <v>0.9968922361784424</v>
       </c>
       <c r="D14">
-        <v>1.01841948827681</v>
+        <v>1.017922732543026</v>
       </c>
       <c r="E14">
-        <v>1.005239644473468</v>
+        <v>1.005005964030805</v>
       </c>
       <c r="F14">
-        <v>1.015194386084526</v>
+        <v>1.015043394961624</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043142850000734</v>
+        <v>1.042980272504743</v>
       </c>
       <c r="J14">
-        <v>1.026769865505992</v>
+        <v>1.026430715454795</v>
       </c>
       <c r="K14">
-        <v>1.033018728445299</v>
+        <v>1.032530922971332</v>
       </c>
       <c r="L14">
-        <v>1.020080260771963</v>
+        <v>1.019850934492996</v>
       </c>
       <c r="M14">
-        <v>1.02985193745093</v>
+        <v>1.02970368812356</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033469820788907</v>
+        <v>1.033352643328407</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034485870545873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034156504805006</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02096675253719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978769611382213</v>
+        <v>0.9974831315588125</v>
       </c>
       <c r="D15">
-        <v>1.018852642098154</v>
+        <v>1.01831060154424</v>
       </c>
       <c r="E15">
-        <v>1.005756460117284</v>
+        <v>1.005485431064866</v>
       </c>
       <c r="F15">
-        <v>1.015724040530592</v>
+        <v>1.015556158724852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043351235500082</v>
+        <v>1.043162644952591</v>
       </c>
       <c r="J15">
-        <v>1.027186703227743</v>
+        <v>1.026809266175751</v>
       </c>
       <c r="K15">
-        <v>1.033357569398941</v>
+        <v>1.032825218182505</v>
       </c>
       <c r="L15">
-        <v>1.020499299555982</v>
+        <v>1.020233279491121</v>
       </c>
       <c r="M15">
-        <v>1.030285078772117</v>
+        <v>1.030120220601142</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033849874783479</v>
+        <v>1.033719572989104</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034731318700108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034371026456355</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02104282024244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000855476371428</v>
+        <v>1.000312125105804</v>
       </c>
       <c r="D16">
-        <v>1.020813363163398</v>
+        <v>1.020093571487347</v>
       </c>
       <c r="E16">
-        <v>1.008112100360504</v>
+        <v>1.007707419860671</v>
       </c>
       <c r="F16">
-        <v>1.017656576386345</v>
+        <v>1.017424894966684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044181101041403</v>
+        <v>1.043899082796355</v>
       </c>
       <c r="J16">
-        <v>1.028958517146482</v>
+        <v>1.028436619133506</v>
       </c>
       <c r="K16">
-        <v>1.03478112142597</v>
+        <v>1.034073625236653</v>
       </c>
       <c r="L16">
-        <v>1.02230016482944</v>
+        <v>1.021902621974633</v>
       </c>
       <c r="M16">
-        <v>1.031678425856903</v>
+        <v>1.03145073136857</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034912286062888</v>
+        <v>1.034732314023845</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035740986052782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035257153581715</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.0213231577664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002457524944524</v>
+        <v>1.001850871860796</v>
       </c>
       <c r="D17">
-        <v>1.021834888448144</v>
+        <v>1.021035716640942</v>
       </c>
       <c r="E17">
-        <v>1.009342705620631</v>
+        <v>1.008884988484388</v>
       </c>
       <c r="F17">
-        <v>1.018401080947869</v>
+        <v>1.018142024029425</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044558401842906</v>
+        <v>1.044239097726325</v>
       </c>
       <c r="J17">
-        <v>1.029821590569643</v>
+        <v>1.029238109132363</v>
       </c>
       <c r="K17">
-        <v>1.035470606033385</v>
+        <v>1.034684699546033</v>
       </c>
       <c r="L17">
-        <v>1.023188882642145</v>
+        <v>1.022739004710365</v>
       </c>
       <c r="M17">
-        <v>1.032093985755047</v>
+        <v>1.031839263382968</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035111133043722</v>
+        <v>1.034909777694158</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036231063947108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035692038156247</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021439478672834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002962749434181</v>
+        <v>1.002365789951642</v>
       </c>
       <c r="D18">
-        <v>1.022089161442938</v>
+        <v>1.021293554251681</v>
       </c>
       <c r="E18">
-        <v>1.009658917955752</v>
+        <v>1.009217354242635</v>
       </c>
       <c r="F18">
-        <v>1.018016477879059</v>
+        <v>1.017760747617432</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04454675972983</v>
+        <v>1.044238590969746</v>
       </c>
       <c r="J18">
-        <v>1.02991429304306</v>
+        <v>1.029339717568438</v>
       </c>
       <c r="K18">
-        <v>1.035537197501299</v>
+        <v>1.034754584254184</v>
       </c>
       <c r="L18">
-        <v>1.023312983015334</v>
+        <v>1.022878858539783</v>
       </c>
       <c r="M18">
-        <v>1.0315313049224</v>
+        <v>1.031279791521303</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034427319965496</v>
+        <v>1.034228459471148</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036266510124535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035728674763646</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021410167751507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002466611435567</v>
+        <v>1.001943353528533</v>
       </c>
       <c r="D19">
-        <v>1.021657621957075</v>
+        <v>1.020939283520887</v>
       </c>
       <c r="E19">
-        <v>1.009144499889373</v>
+        <v>1.00877904243593</v>
       </c>
       <c r="F19">
-        <v>1.016511405420053</v>
+        <v>1.016286121164555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044191421889455</v>
+        <v>1.043936348539637</v>
       </c>
       <c r="J19">
-        <v>1.02930267160592</v>
+        <v>1.028798944650545</v>
       </c>
       <c r="K19">
-        <v>1.035050105766597</v>
+        <v>1.034343448252922</v>
       </c>
       <c r="L19">
-        <v>1.022743525482924</v>
+        <v>1.022384199557277</v>
       </c>
       <c r="M19">
-        <v>1.029988040883402</v>
+        <v>1.029766465554671</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032879201262127</v>
+        <v>1.032703953466075</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035928518866335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035445017246435</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021256254734359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9991279878587308</v>
+        <v>0.998863048321234</v>
       </c>
       <c r="D20">
-        <v>1.019260755012816</v>
+        <v>1.018830318228876</v>
       </c>
       <c r="E20">
-        <v>1.006269320278325</v>
+        <v>1.006153287912344</v>
       </c>
       <c r="F20">
-        <v>1.011973939326281</v>
+        <v>1.011858746538703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042852092877378</v>
+        <v>1.042770941869269</v>
       </c>
       <c r="J20">
-        <v>1.026692565545701</v>
+        <v>1.026437868011019</v>
       </c>
       <c r="K20">
-        <v>1.032973176097603</v>
+        <v>1.032549947756208</v>
       </c>
       <c r="L20">
-        <v>1.020202819808366</v>
+        <v>1.020088795272912</v>
       </c>
       <c r="M20">
-        <v>1.025809459138101</v>
+        <v>1.025696230728839</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029040114839609</v>
+        <v>1.028950505233625</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034463987553269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034181284830382</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020741618715896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.993139981452456</v>
+        <v>0.9932166897360934</v>
       </c>
       <c r="D21">
-        <v>1.015253513148625</v>
+        <v>1.015217531576847</v>
       </c>
       <c r="E21">
-        <v>1.001453579936065</v>
+        <v>1.001650162103238</v>
       </c>
       <c r="F21">
-        <v>1.007485723734599</v>
+        <v>1.007519157349981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041045094913304</v>
+        <v>1.041180673809045</v>
       </c>
       <c r="J21">
-        <v>1.022927343809879</v>
+        <v>1.02300078179809</v>
       </c>
       <c r="K21">
-        <v>1.029951552986957</v>
+        <v>1.029916226732199</v>
       </c>
       <c r="L21">
-        <v>1.016407466030399</v>
+        <v>1.016600338953385</v>
       </c>
       <c r="M21">
-        <v>1.022326651177626</v>
+        <v>1.022359463627353</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026242293274399</v>
+        <v>1.026268262655196</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032330829719406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032322735183983</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020112273499932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9893438925143557</v>
+        <v>0.9896389374417277</v>
       </c>
       <c r="D22">
-        <v>1.012719784970036</v>
+        <v>1.012933830568807</v>
       </c>
       <c r="E22">
-        <v>0.9984150021172599</v>
+        <v>0.998810507882005</v>
       </c>
       <c r="F22">
-        <v>1.00477263992408</v>
+        <v>1.004901372307046</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039901302367552</v>
+        <v>1.040173899964876</v>
       </c>
       <c r="J22">
-        <v>1.020559024053651</v>
+        <v>1.020840721455746</v>
       </c>
       <c r="K22">
-        <v>1.028043402819204</v>
+        <v>1.028253347539021</v>
       </c>
       <c r="L22">
-        <v>1.014017923652732</v>
+        <v>1.014405565729722</v>
       </c>
       <c r="M22">
-        <v>1.02025013910583</v>
+        <v>1.020376353385795</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024598837844779</v>
+        <v>1.024698730246802</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030968129850754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031132162067665</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019714152039816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9913466563859297</v>
+        <v>0.9915269730585706</v>
       </c>
       <c r="D23">
-        <v>1.014048032516746</v>
+        <v>1.014130583339898</v>
       </c>
       <c r="E23">
-        <v>1.000014057701218</v>
+        <v>1.00030535830433</v>
       </c>
       <c r="F23">
-        <v>1.006208013415121</v>
+        <v>1.006286644091583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040498493382666</v>
+        <v>1.040699434772666</v>
       </c>
       <c r="J23">
-        <v>1.021802501564992</v>
+        <v>1.021974911622119</v>
       </c>
       <c r="K23">
-        <v>1.029039750322173</v>
+        <v>1.029120761111178</v>
       </c>
       <c r="L23">
-        <v>1.015272431072328</v>
+        <v>1.015558097113418</v>
       </c>
       <c r="M23">
-        <v>1.021347497755943</v>
+        <v>1.021424631471699</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025467342815677</v>
+        <v>1.025528390286212</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031662920674647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031734840459475</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019919673565467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990636421571398</v>
+        <v>0.9988095913750004</v>
       </c>
       <c r="D24">
-        <v>1.019191766606316</v>
+        <v>1.018772391263193</v>
       </c>
       <c r="E24">
-        <v>1.006196915692246</v>
+        <v>1.006092279895256</v>
       </c>
       <c r="F24">
-        <v>1.011757420003706</v>
+        <v>1.011646878176929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04279286645014</v>
+        <v>1.042719679391788</v>
       </c>
       <c r="J24">
-        <v>1.026597784113369</v>
+        <v>1.026353542233119</v>
       </c>
       <c r="K24">
-        <v>1.03289003212739</v>
+        <v>1.032477672103212</v>
       </c>
       <c r="L24">
-        <v>1.020116073535711</v>
+        <v>1.020013246342113</v>
       </c>
       <c r="M24">
-        <v>1.025581160949132</v>
+        <v>1.025472502795474</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028818067019952</v>
+        <v>1.028732069947316</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034377743611999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034100048217536</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020713290204986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007636835877591</v>
+        <v>1.006916982104082</v>
       </c>
       <c r="D25">
-        <v>1.024929096366209</v>
+        <v>1.023963180864139</v>
       </c>
       <c r="E25">
-        <v>1.013095501261326</v>
+        <v>1.01256486955859</v>
       </c>
       <c r="F25">
-        <v>1.017975364028419</v>
+        <v>1.017662922375475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045302164593585</v>
+        <v>1.044930748828873</v>
       </c>
       <c r="J25">
-        <v>1.031909895273719</v>
+        <v>1.031213783641888</v>
       </c>
       <c r="K25">
-        <v>1.037152364573856</v>
+        <v>1.036200549272811</v>
       </c>
       <c r="L25">
-        <v>1.025493871732902</v>
+        <v>1.024971213857108</v>
       </c>
       <c r="M25">
-        <v>1.030300900003156</v>
+        <v>1.029993095098559</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032553475827788</v>
+        <v>1.032309866116042</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037388567010619</v>
+        <v>1.036729124795772</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021581271306238</v>
       </c>
     </row>
   </sheetData>
